--- a/job_listings.xlsx
+++ b/job_listings.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fortinet Site-to-Site Setup</t>
+          <t>WoW (World of Warcraft) LUA/XML Addon Development</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I need an expert to configure a FortiGate device for site-to-site connectivity to connect our branch offices. This setup should also include multiple VLAN configurations.Key Requirements:- FortiGate configuration for site-to-site connectivity- Multiple VLAN configurationsIdeal Skills and Experience:- Proficiency with FortiGate devices- Experience in configuring site-to-site VPNs- Knowledge of VLAN setup and management- Familiarity with branch office connectivity solutionsPlease provide relevant experience and approach.</t>
+          <t>Please read completely before placing a bid !Please bid only if you also plan to respond...Please someone who is interested in doing several projectsPlease make realistic offers and no fake offers where the price multiplies afterwards.Please keep in mind that changes can still be made during the testing phase !I'm seeking a developer to create a World of Warcraft addon to modify the interface, specifically for bag management and minimap customization. Knowledge of LUA and XML is essential.Key Features:- Movable bags- Sorting function- Custom bag categories- Customizable minimap (movable and resizable)Existing addons are outdated and need updating. Ideal Skills:- Proficiency in LUA &amp; XML- Experience with WoW addons- Strong problem-solving skills- Attention to de...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/vpn/fortinet-site-site-setup</t>
+          <t>https://www.freelancer.com/projects/xml/wow-world-warcraft-lua-xml</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,12 +512,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apollo.io Expert_2</t>
+          <t>App Debugging for VoiceToNotes.ai</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I'm seeking an  expert to coach me in lead generation and sales sequence automation. Ideal skills and experience:- Proven expertise in - Strong background in lead generation and sales automation- Ability to provide clear, actionable coaching- Flexible availability to meet my learning pace</t>
+          <t>Hello,I’m looking for an experienced mobile app developer to help identify and fix bugs in my mobile application , which is already live on both the App Store and Play Store. is a voice-to-text app that converts speech into organized, searchable notes. The app is built for productivity and is used by professionals for capturing meetings, interviews, and personal voice memos.App Download Links (for testing):iOS App Store: Android Play Store: Scope of Work:Download and test the app on both Android and iOS devicesIdentify any bugs, crashes, or UI/UX issuesFix confirmed bugs in the codebase (source code access will be provided after selection)Ensure smooth performance and proper transcription flowCommunicate clearly about any issues you encounterNote: This project i...</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,17 +527,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/lead-generation/apollo-expert</t>
+          <t>https://www.freelancer.com/projects/flutter/app-debugging-for-voicetonotes</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,12 +546,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amazon &amp; Meesho PPC Specialist Needed</t>
+          <t>Angular Developer Needed for A4 PDF Preview with Smart Pagination</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I'm in search of a PPC specialist with expertise in managing campaigns on both Amazon and Meesho platforms. My primary goals are to increase sales, boost brand awareness, and drive traffic to specific products. I currently have an existing PPC campaign on Amazon, but I require assistance in optimizing it and setting up a new campaign on Meesho.Key Requirements:- Expertise in PPC management for both Amazon and Meesho- Ability to optimize existing Amazon campaigns for better performance- Experience in setting up and managing new campaigns on Meesho- Proven track record of increasing sales and brand visibility through PPC- Skills in analyzing campaign data to drive traffic to targeted productsIdeal Skills and Experience:- Strong understanding of Amazon and Meesho advertising pl...</t>
+          <t>I need an experienced Angular developer to help enhance a PDF preview component for dynamically rendered question papers.Currently, entire question blocks (including text, image, options, and answers) are treated as single units during pagination. This results in a lot of wasted white space when the full block doesn’t fit on a page.Your Task:Implement granular pagination, where each part of a question (question text, question image, each option, and explanation/answer) is treated as an independent block that can break across pages.Maintain a clean and accurate A4 layout (210mm × 297mm) with proper padding and print-readiness.Support both single-column and two-column layouts.Ensure image rendering and MathJax equations are correctly handled after pagination.Fix white ...</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/ppc-marketing/amazon-meesho-ppc-specialist-needed</t>
+          <t>https://www.freelancer.com/projects/angular/angular-developer-needed-for-pdf</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,12 +580,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Facebook Pixel &amp; Conversions API Advanced Matching Configuration</t>
+          <t>Vedic Astrology Consultation Website Development</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I need assistance configuring Facebook Pixel and Conversions API to ensure customer data is sent with all events, including the Purchase Event, using best practices for Advanced Matching.Scope of Work:- Send customer data (fbclid, email, phone number, country, state/region, first/last name) with all events.- Ensure data is hashed (SHA-256) where required before sending.- Include unique Event IDs for deduplication between Pixel and CAPI events.- Adjust form UI to always show a required email field and make ZIP Code optional.- Fix any discrepancies in data being sent with Purchase events versus other events like PageView.- Review new events (e.g., Chat Open/Close) and clarify their goals.Technical Notes:- Use JavaScript in Wix to capture fbclid from URL parameters and s...</t>
+          <t>I need a comprehensive Vedic astrology website. The website should allow clients to schedule consultations, submit their birth details, and make payments.Key features:- Integrated calendar with real-time availability for booking consultations- Online form with specific fields to collect clients' birth details- Payment processing for Credit/Debit Card, PayPal, Bank Transfer, and UPIIdeal Skills and Experience:- Web development expertise- Experience with scheduling systems and payment gateways- Familiarity with form-building toolsLooking forward to your bids!It would be better if they use Artificial Intelligence for the same.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/ajax/facebook-pixel-conversions-api-advanced</t>
+          <t>https://www.freelancer.com/projects/web-development/vedic-astrology-consultation-website</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,12 +614,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Secure Banking Application Development</t>
+          <t>ENTER QUICKLY - DESIGN CONTEST - 6 x 9 Postcard Design</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The application will feature a secure login page, a user-friendly home page with a numeric keypad for amount input, and functionality for users to borrow money and transfer funds. The right bottom side of the home page will include two main options: "Borrow" and "Transfer." Additional options will be neatly organized on the screen for easy access.## Approach1. **User Authentication**: Implement secure login functionalities using JWT (JSON Web Tokens) for user sessions with registration and password recovery options.   2. **Home Page Design**: Create a responsive home page design that includes:   - A numeric keypad for entering the borrowing amount.   - The "Borrow" button to initiate the borrowing process.   - The "Transfer" button to facilit...</t>
+          <t>I need a print-ready 6 x 9 postcard designed.Here are the specifics:Headline (Front):FINAL NOTICE — YOU’RE OUT OF TIMEYour Certificate is OVERDUE.Visual:- Council-style WARNING NOTICE on a front gate, pool in background blurred.- Text: "WARNING NOTICE Your Pool Certificate Is OVERDUE!"Requirements:- Source file in Photoshop (PSD)- Print-ready file- Copy the attached image- Add my phone number and website at the bottom (0489 277 377  )Ideal Skills and Experience:- Proficiency in Adobe Photoshop- Experience with print design- Attention to detail</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Beginner Web Development</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/frontend-development/secure-banking-application-development</t>
+          <t>https://www.freelancer.com/jobs//contest/enter-quickly-design-contest-x-postcard-design-2594532</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,12 +648,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Channel Partners or Resellers for AI HR Software Needed</t>
+          <t>Elegant Sale Event Flyer Design</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>We are an IT company looking for dynamic resellers and channel partners to promote and sell our innovative AI-powered HR resume screening software, Garuda AI HR Assistant. This software revolutionizes the hiring process by enabling HR teams to analyze resumes in seconds with AI-based skill matching, experience fit, and hiring automation.Your Role:- Identify and connect with potential leads, including HR professionals, recruiters, staffing firms, SMEs, and organizations.- Actively promote and onboard clients to our software.- Earn commissions on every successful paid conversion.Key Requirements:- Strong B2B connections- Ability to operate in local, national , international markets.- Experience in sales and client onboarding.This opportunity is purely commission-based, offering u...</t>
+          <t>I'm looking for a talented graphic designer to create an elegant and luxurious flyer for promoting a sale event for our furnishing studio business. We have all concepts ready, and need a designer who can bring those concepts to life. Requirements:- Design an elegant and luxurious flyer- Concepts provided, need creative execution- Incorporate exclusive offers/discounts- Include contact information and operating hoursIdeal Skills and Experience:- Proven graphic design experience- Portfolio showcasing elegant/luxurious designs- Proficient in design software (Adobe Suite, etc.)- Attention to detail and creativityLooking forward to your bids!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/sales/channel-partners-resellers-for-software</t>
+          <t>https://www.freelancer.com/projects/adobe-creative-suite/elegant-sale-event-flyer-design</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,12 +682,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trendy Instagram Reel Edit</t>
+          <t>Bug Fixing for VoiceToNotes.ai Mobile App (iOS &amp; Android)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I need a fast-paced, trendy reel for Instagram. The reel is for social media promotion.Requirements:- Edit video clips into a dynamic reel- Add engaging transitions and effects- Incorporate popular music and trends- Ensure it meets Instagram's format and durationIdeal Skills:- Experience with video editing software (e.g., Adobe Premiere Pro, Final Cut Pro)- Strong understanding of Instagram trends- Creative and up-to-date with social media aestheticsPlease share your portfolio with similar work.</t>
+          <t>Hello,I’m looking for an experienced mobile app developer to help identify and fix bugs in my mobile application , which is already live on both the App Store and Play Store. is a voice-to-text app that converts speech into organized, searchable notes. The app is built for productivity and is used by professionals for capturing meetings, interviews, and personal voice memos.App Download Links (for testing):iOS App Store: Android Play Store: Scope of Work:Download and test the app on both Android and iOS devicesIdentify any bugs, crashes, or UI/UX issuesFix confirmed bugs in the codebase (source code access will be provided after selection)Ensure smooth performance and proper transcription flowCommunicate clearly about any issues you encounterNote: This project i...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/av-editing/trendy-instagram-reel-edit</t>
+          <t>https://www.freelancer.com/projects/debugging/bug-fixing-for-voicetonotes-mobile</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,12 +716,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Excel File Tracker Fix</t>
+          <t>Texas Real Estate Title Research</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I need an Excel and automation specialist to edit and fix an Automated OneDrive File Tracking System in excel that uses macrosThis sheet Scans a defined folder for subfolders (each representing a customer).Lists customer names in column B Checks for the presence of specific files within each customer's folder.Applies color-coded visual indicators based on whether the files exist:Green = foundRed = not found (for critical files)Grey = optional/missing but not critical (like .2do or Credit Application)Adds a calculated progress percentage in Column J using a formulaKey Requirements1. I need to edit the sheet to remove a column from the table that references a file no longer needed. Specifically the Final validation column is no longer needed.2. I need the sheet to referenc...</t>
+          <t>I'm seeking a skilled professional to conduct comprehensive title research for residential properties in Texas. The project involves title abstracting, property title searches, and real estate research to ensure thorough and accurate findings.Key Requirements:- Conduct title abstracting and property title searches for residential properties- Provide detailed reports on ownership history- Identify any liens and encumbrances on the property- Verify property boundaries and surveysIdeal Skills and Experience:- Extensive experience in title abstracting and property title searches- Familiarity with Texas real estate laws and regulations- Strong attention to detail and analytical skills- Ability to deliver comprehensive and accurate reportsIf you have the expertise in real esta...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/excel/excel-file-tracker-fix</t>
+          <t>https://www.freelancer.com/projects/real-estate/texas-real-estate-title-research</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,12 +750,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Promotional Video Editing Needed</t>
+          <t>Blockchain Expert</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I need a skilled video editor to work on a promotional video. The final video should be between 1-5 minutes in length. Key Requirements:- Focus on cutting and trimming the video to enhance its flow and impact.- The video is promotional in nature, so it should effectively convey the intended message.Ideal Skills and Experience:- Experience in editing promotional videos.- Proficiency in cutting and trimming video content.- Familiarity with adding text and graphics, as well as color correction, is a plus for future projects.</t>
+          <t>Blockchain ExpertWe're looking for blockchain experts who know everything about blockchain and contracts.NOT asking for an advance.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/av-editing/promotional-video-editing-needed-39619704</t>
+          <t>https://www.freelancer.com/projects/blockchain/blockchain-expert-39624190</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,12 +784,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Edit and Proofread History Textbook</t>
+          <t>Modern WordPress Landing Page Design</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I'm looking for a thorough proofreader and editor for an elementary-level history textbook. The book requires:- Basic grammar and spelling corrections.- Refinements in style and tone for age-appropriateness.- Fact-checking and ensuring content accuracy.Ideal skills and experience:- Strong command of the English language.- Experience with educational content, especially for elementary students.- Background in history is a plus.- Detail-oriented and reliable.Please provide samples of previous work.</t>
+          <t>I need a clean, modern, and responsive WordPress landing page for a business website. The goal is to present company information, services, and a strong call-to-action to convert visitors into leads.Requirements:- Custom-designed WordPress landing page (no bloated themes)- Mobile responsive and fast loadingSections to include:- Hero with headline &amp; CTA- About Us- Services/Offerings (highlighting Product Development)- Testimonials- Contact Form (integrated with email)- Footer with social links and basic infoPlease share relevant landing pages you have built using WordPress. Preference will be given to those with a good design sense and timely communication.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -799,17 +799,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/content-writing/edit-proofread-history-textbook</t>
+          <t>https://www.freelancer.com/projects/web-design/modern-wordpress-landing-page-design</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,12 +818,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bilingual Women's Memory Journal Design</t>
+          <t>Create Social Media Content for NGO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>وصف المشروع:أبحث عن مصممة ومحررة محتوى تساعدني في إنهاء مشروع دفتر ذكريات بعنوان “آلة زمن – Time Machine”، مصمم ليكون مناسبًا للبنات والشباب.الدفتر يهدف لتوثيق لحظات العلاقة العاطفية والمميزة مثل:أول مكالمة، أول لقاء، الخطوبة، الزواج، وغيرها من الذكريات الخاصة.المهام المطلوبة:•تصميم نهائي للدفتر بصيغة PDF، بتصميم ناعم، أنيق، ومحايد يناسب الجنسين•إعداد نسختين: واحدة بالعربية وأخرى بالإنجليزية•تصحيح الأخطاء الإملائية والنحوية في كلا اللغتين•تنسيق الصفحات بشكل واضح مع مساحة مريحة للكتابة اليدوية•استخدام عناصر بصرية بسيطة (رموز، رسومات) تناسب الشباب والبنات•الاعتماد على المحتوى والعناوين التي سأقوم بتوفيرها كأساسالدفتر يحتوي على حوالي 86 صفحة، وسأرسل كل المحتوى والتعليمات المطلوبة.أحتاج أن يكون الملف النهائي جاهز للطباع...</t>
+          <t>I am looking for a talented freelancer to help create impactful social media content and reels for our non-profit organization dedicated to helping the poor. Our goal is to raise awareness and engage our audience across multiple platforms.Key Requirements:- Develop engaging social media posts for Facebook, Instagram, and Twitter- Create compelling awareness campaign reels to highlight our cause- Ensure content aligns with our mission and values as a non-profitIdeal Skills and Experience:- Experience in social media content creation and management- Strong storytelling skills to convey our message effectively- Ability to create visually appealing and impactful reels- Passion for social causes and understanding of non-profit workJoin us in making a difference by spreading awarene...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -833,17 +833,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Design &amp; Creative</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/graphic-design/bilingual-women-memory-journal-design</t>
+          <t>https://www.freelancer.com/projects/social-media-management/create-social-media-content-for</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,12 +852,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Professional Online Portfolio Website</t>
+          <t>Book Formatting for Print</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hi! I'm Harshwardhan Sahu, a Computer Science &amp; Engineering student and aspiring developer. I'm looking for a skilled web developer to help me build a modern, responsive, and professional personal portfolio website.This site will be my digital identity — used to showcase my skills, projects, blog posts, and contact information. It's crucial for internships, job applications, and freelance opportunities.The website should include:- About Me section- Portfolio/Gallery to showcase my work- Contact Information for potential employers and clients- Blog/News section to share updates and insightsIdeal Skills and Experience:- Strong background in web design and development- Experience creating professional and corporate-style websites- Ability to build respo...</t>
+          <t>I'm looking for a skilled professional to format my book for both paperback and hardcover editions. The final size of the book will be 6 x 9 inches.Requirements:- Format a PDF manuscript- Prepare for both paperback and hardcover- No specific font preferenceIdeal Skills and Experience:- Expertise in book formatting- Proficiency with PDF editing tools- Attention to detail and design aestheticsPlease provide samples of previous work.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/web-design/professional-online-portfolio-website</t>
+          <t>https://www.freelancer.com/jobs//contest/book-formatting-for-print-2594504</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,12 +886,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>REVENUE SHARING  House Plans Set &amp; Rendering</t>
+          <t>Modern Logo Design for Institute</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BUSINESS MODEL: WE ARE LOOKING FOR A LONG-TERM FREELANCER FOR OUR ETSY STORE WITH A PROFIT SHARING MODELAll processes will be carried out with formal contracts and payment applications.We are looking for candidates with high business acumen and open to development.You will have the opportunity for passive income with repeat salesMarketing expenses will be covered by us and will not affect your profit.I am looking for an experienced Chief Architect user to create and provide detailed 3D visualizations of comprehensive residential home plan sets, (farmhouse, barndominium, craftsman etc.) including permit set drawings.Basic Requirements:- Floor plans, elevations and sections, roof plan, foundation plan, electrical plan for a complete permit set.- 3D visualizations are required for b...</t>
+          <t>I need a modern logo for my institute. Requirements:- Modern style- Use of blue, green, and red colors- Open to creative input on elements or symbolsIdeal Skills:- Proficiency in modern logo design- Strong color theory knowledge- Creativity in incorporating various elements</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/building-architecture/revenue-sharing-house-plans-set</t>
+          <t>https://www.freelancer.com/projects/creative-design/modern-logo-design-for-institute</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,12 +920,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Premium Logo Design for Online Casino &amp; Tournaments - 18/07/2025 08:13 EDT</t>
+          <t>Retro Basketball Singlet Design Needed</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hello,We are looking for a professional logo for SpinLegend, a new online casino brand.&gt;&gt; The name SpinLegend combines:Spin → Casino, gamingLegend → Glory, success, mystery, excitement&gt;&gt; Industry insight (France):In France, gambling remains a taboo subject, especially winnings, which are seen negatively in professional or family circles. This creates frustration, especially among VIP players, who crave social features, such as:- Tournaments- Leaderboards- Live events with other playersSpinLegend aims to meet this demand and offer something more than a generic product, by integrating weekly tournaments with visible rankings and bonus/free spin rewards. This is made possible through a plugin such as UNIBO, already available via WLC.&gt;&gt; Design Direct...</t>
+          <t>I'm seeking a talented designer to add creative flair to a custom printed basketball singlet. I already have the main concept in place, but I need someone with experience in sports uniforms to bring a retro and classic look to life.Key Requirements:- Incorporate a retro and classic design style- Use classic color schemes, specifically oranges and argyle sweater tones- Enhance the existing concept with creative design elementsIdeal Skills and Experience:- Strong background in designing sports uniforms- Proficiency in creating retro and classic aesthetics- Ability to work with specific color schemes and design elements- Creative flair to elevate the existing conceptIf you have a passion for sports design and a knack for retro styles, I'd love to see your ideas!</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/jobs//contest/premium-logo-design-for-online-casino-amp-tournaments-edt-2593580</t>
+          <t>https://www.freelancer.com/projects/sports-design/retro-basketball-singlet-design-needed</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,12 +954,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Business Insights and Content Development Specialist</t>
+          <t>Travel Website Development: TripXplore</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>I'm seeking a detail-oriented professional to assist with multiple tasks. Key Responsibilities:Business Data Analysis:- Provide insights and strategies to identify growth opportunities.- Collaborate closely with me to translate data into actionable business strategies.Content Development:- Craft compelling content for PR and branding.- Ensure high-quality, engaging messages that resonate with target audiences.Content Translation:- Translate content between English and Hindi with precision.- Maintain the original message's integrity and impact.Ideal Skills and Experience:- Strong background in business data analysis.- Excellent content development and translation skills.- Proficient in English and Hindi.- Detail-oriented with a strategic mindset.Looking forwa...</t>
+          <t>TripXplore Travel Website Requirements – At a Glance1. Core PagesHomepage – Highlights upcoming trips, key benefits, and CTAs (Book Now, View Trips).Trips Listing Page – Show all available trips with filters (location, date, price).Trip Details Page – Full itinerary, inclusions, photos, FAQs, booking option.Booking Page – Form + payment gateway (Razorpay/UPI), auto confirmation.About Us Page – Story, team, mission.Contact Page – WhatsApp integration, email, form.Blog/Guide Section – Travel tips, student guides (for SEO &amp; trust).2. Key FeaturesTrip cards with dynamic filtering.Mobile-friendly responsive design.Admin panel to add/edit trips.Partial &amp; full payment options.WhatsApp automation (post booking).Test...</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -969,17 +969,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Writing &amp; Content</t>
+          <t>Web Development Internship</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/business-analysis/business-insights-content-development</t>
+          <t>https://www.freelancer.com/projects/nextjs/travel-website-development-tripxplore</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Modélisateur 3D Expert Pour Bijoux Requis - 18/07/2025 08:11 EDT</t>
+          <t>WooCommerce Optimization</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Recherche modélisateur 3D pour création de bijoux (à partir d’images + côtes précises)Bonjour,Je recherche un modélisateur 3D expérimenté en bijouterie pour réaliser des modèles 3D de bijoux à partir de photos ou croquis, avec les dimensions exactes fournies (longueur, épaisseur, diamètres, etc.).Objectif :Modèles destinés à l'imprimerie 3D puis à la fonte perdue.Travail régulier possible selon qualité et réactivité.Compétences recherchées :Maîtrise de logiciels spécialisés : Rhino / Matrix / ZBrush / Blender / 3Design / etc.Capacité à respecter des proportions précise...</t>
+          <t>Hi!I'm looking for a WooCommerce expert to help me improve the performance and stability of my small business online store.Here are some details about my website:WordPress + WooCommerce, hosted on o2switch Cloud (shared cloud)Over 3,000 products, and still growingMultilingual setup using WPML (which adds significant load)We use the following tools and services:WP Rocket (for caching and optimization)Redis Object CacheCloudflare (CDN + DNS)➤ Please note: all the plugins currently installed are essential to the store’s operation.However, we are still experiencing:Database connection errorsServer connection timeoutsSlow loading times, especially on product/category pagesWhat we need:A technical audit (plugins, database, theme, server config)Help i...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1008,12 +1008,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/jobs//contest/modeacutelisateur-d-expert-pour-bijoux-requis-edt-2593578</t>
+          <t>https://www.freelancer.com/projects/wordpress/woocommerce-optimization-39622610</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,12 +1022,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GST return filing</t>
+          <t>Python Full Stack Developer Training</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I need some help for GST return filing, need to file returns for past 3 months.</t>
+          <t>I'm seeking an experienced Python Full Stack Developer Trainer to conduct online live sessions. The trainees are advanced in Python and require comprehensive training in:- Front-end development- Back-end development- Database integrationIdeal Skills and Experience:- Expertise in Python and full stack development- Proven experience in teaching advanced developers- Strong communication skills for online training- Familiarity with modern development frameworks and toolsLooking forward to your proposals!</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/accounting/gst-return-filing-39619695</t>
+          <t>https://www.freelancer.com/projects/full-stack-development/python-full-stack-developer-training</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,12 +1056,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rediseño web</t>
+          <t>API Documentation Specialist</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Necesito rediseñar una web teniendo en cuenta dos pilares fundamentales, el primero es la experiencia de usuario UI/UX, la segunda es que el diseño esté optimizdo para el posicionamiento SEO.Diseño moderno y limpio, agradable y de facil usabilidad.Este diseño de referencia me parece que cumplen o al menos en parte esta idea: Adjunto capturas que también me parecen atractivas a la idea que busco.---I need to redesign a website, keeping two key pillars in mind: the first is the UI/UX user experience; the second is that the design is optimized for SEO.A modern and clean design, pleasant and easy to use.This reference design seems to me to fulfill, or at least partially, this idea:I've attached screenshots tha...</t>
+          <t>I need a skilled technical writer to create comprehensive API documentation. This is crucial for our developers and users.Key requirements:- Expertise in technical writing, particularly in API documentation- Ability to understand complex technical concepts and translate them into clear, concise documentation- Experience with documentation tools and platforms- Strong attention to detail and organization skillsIdeal skills and experience:- Proven track record in writing API docs- Familiarity with software development and APIs- Previous work samples or portfolioLooking forward to your proposals!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/graphic-design/redise-web-39619696</t>
+          <t>https://www.freelancer.com/projects/documentation/api-documentation-specialist</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1090,12 +1090,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>iGaming Market Research in Brazil</t>
+          <t>Dolibarr CRM Setup for Small Team</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I'm seeking a freelancer to assist with a market research study on iGaming companies in Brazil. This is a 6-month project with a monthly payment. The estimated workload is 1-2 hours per week.Key Requirements:- Must reside in Brazil to access specific information.- Data collection on iGaming companies.- Manageable effort, with detailed guidance provided.Ideal Skills:- Experience in market research.- Familiarity with the iGaming industry.- Strong analytical skills.Please message me to discuss further details!</t>
+          <t>I'm looking for a skilled freelancer to set up Dolibarr for my business, focusing on CRM and customer management. The system will be used by a small team of 1-5 users, and I need it configured to enhance our customer relationship management processes.Key Requirements:- Install and configure Dolibarr with a focus on CRM functionalities- Customize the system to suit our business needs and workflows- Ensure user-friendly access and navigation for a small team- Provide training or documentation for effective useIdeal Skills and Experience:- Experience with Dolibarr setup and customization- Strong understanding of CRM systems and customer management- Ability to tailor solutions for small teams- Good communication skills for training and supportI'm eager to streamline our...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/data-collection/igaming-market-research-brazil</t>
+          <t>https://www.freelancer.com/projects/training/dolibarr-crm-setup-for-small</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,12 +1124,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Logo Creation for AW Graphic Design</t>
+          <t>Create Educational Men's Fashion Videos</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Project Title: Logo Design for Senior Graphic DesignerProject Description:I am looking for a creative and professional graphic designer to create a logo for my personal brand. I am a senior graphic designer with experience in branding, digital marketing, and visual design. The logo should reflect my expertise and showcase a clean, modern, and creative design.Key Requirements:The logo should include my name: AW(animationworld)I want a sleek, professional, and minimalist design.The logo should be versatile for use on different platforms (website, business cards, social media profiles, etc.).The design should be delivered in vector format (AI, EPS, or SVG).Preferably, the logo will related to graphic designing filed. And Typography feels intentional and well-matched , profes...</t>
+          <t>I'm seeking a talented freelancer to create engaging YouTube videos focused on men's fashion, specifically providing educational content on styling tips. The videos should be in a voiceover with demonstration format, allowing viewers to easily follow along with the advice given.Key Requirements:- Develop educational/how-to videos on men's styling tips- Use a voiceover with demonstration format to clearly convey information- Create eye-catching thumbnails for each video to attract viewers- Ensure high-quality video production and editingIdeal Skills and Experience:- Experience in video production and editing for YouTube- Strong understanding of men's fashion and styling- Ability to create compelling and informative content- Skills in graphic design for creati...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/adobe-illustrator/logo-creation-for-graphic-design</t>
+          <t>https://www.freelancer.com/projects/graphic-design/create-educational-men-fashion-videos</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1158,12 +1158,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cartoonish Wild Animal Sticker Logo</t>
+          <t>Solar Inverter Power Output Issue</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>I am looking for a talented designer to create a unique cartoonish sticker logo featuring eagle character. LOOK at the attached image were everything is explainedI have tiktok account capturing cool cars on the road. I have big fanbase and want to sell my fans stickers they can stick on their car. Key Requirements:- Design a cartoonish style stickers logo- Ensure the design is eye-catching and suitable for stickers- Deliver high-quality, scalable vector filesIdeal Skills and Experience:- Strong illustration skills with a focus on cartoonish styles- Experience in logo and sticker design- Creativity in depicting animals in a fun and imaginative manner- Proficiency in graphic design software such as Adobe Illustrator</t>
+          <t>I am experiencing a problem with my solar inverter, specifically that it is not providing any power output. I have already checked and confirmed that the solar panel connections to the inverter are properly connected, so the issue seems to lie elsewhere.Key Requirements:- Diagnose and resolve the no power output issue with the solar inverter- Ensure all components are functioning correctly and efficiently- Provide guidance on any necessary repairs or replacementsIdeal Skills and Experience:- Expertise in solar inverter systems and troubleshooting- Strong understanding of solar panel and inverter connections- Experience in diagnosing and fixing power output issues- Ability to provide clear instructions and recommendations for maintenance and repairI am seeking a knowledgeable p...</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/adobe-illustrator/cartoonish-wild-animal-sticker-logo</t>
+          <t>https://www.freelancer.com/projects/solar/solar-inverter-power-output-issue</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1192,12 +1192,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LinkedIn Post identification, Reposting and Cross-Posting</t>
+          <t>Comprehensive Healthcare Video Consultation App</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>I'm looking for someone who can identify the right content in linkedin( details to be shared later) and repost it using our handle on LinkedIn, the individual should then copy those posts to a separate website provided by usRequirements:- Search and Identify the right content on LinkedIn and post it( Type of content will be shared later)- Daily reposts on LinkedIn- Content includes text, images, and links- Copy all posts to a separate website provided by usIdeal Skills and Experience:- Experience with LinkedIn- Attention to detail and reliability</t>
+          <t>I'm developing a healthcare web app focused on providing online video consultations as the primary feature. The app will also support additional services such as investigations requesting, phlebotomy, e-prescriptions, specialist reviews, and clinical report reviews.Key Requirements:- Develop a robust online video consultation platform- Integrate live chat and consultation recording features- Enable users to request and review lab test, radiology, and pathology reports- Facilitate e-prescriptions and specialist reviews- Include options for requesting phlebotomy and other healthcare servicesIdeal Skills and Experience:- Strong background in web app development, particularly in healthcare- Experience with video conferencing technologies and live chat integration- Familiarity ...</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/social-media-management/linkedin-post-identification-reposting</t>
+          <t>https://www.freelancer.com/projects/web-development/comprehensive-healthcare-video</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1226,12 +1226,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lab Technician - Sensor Technology</t>
+          <t>Vintage Logo Design for Startups</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Near ZURICH, CHMain responsibilities:Preparation and setup of test devicesExecution of measurement campaigns including data acquisitionValidation and plausibility checks of measurement resultsData analysis and assessment of measurement uncertaintyIndependent, structured, and reliable working style in a lab environmentRequirements:Completed education in automation, mechatronics, mechanical or electrical engineering (or equivalent)3–4 years of experience in:Test setup and executionMeasurement data acquisition and evaluationValidation of measurement resultsAssessment of measurement uncertaintiesTechnical skills:MATLAB (1–3 years)Python (1–3 years)LabView (nice to have)</t>
+          <t>I'm seeking a talented logo designer to create vintage-style logos for various companies, specifically tech startups and food &amp; beverage brands.Requirements:- Vintage aesthetic with a modern touch- Incorporation of icons/emblemsIdeal Skills:- Strong portfolio in vintage logo design- Experience with tech and food &amp; beverage industries- Proficiency in design software (Adobe Illustrator, etc.)- Creative and detail-orientedPlease provide samples of previous work and a rough timeline.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1241,17 +1241,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/labview/lab-technician-sensor-technology</t>
+          <t>https://www.freelancer.com/projects/adobe-illustrator/vintage-logo-design-for-startups</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1260,12 +1260,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Blockchain and AI Integration Project</t>
+          <t>Engaging CGI Ads for Social Media For Navratri Event</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I'm looking for an experienced developer to assist with integrating blockchain technology and AI automation into our systems. The project involves working with Ethereum, developing DApps, and creating NFTs. Additionally, I need to integrate AI tools such as n8n, Zapier, and an AI chat bot to automate processes efficiently.Key Requirements:- Expertise in Ethereum integration, DApp development, and NFT creation- Proficiency in integrating AI tools like n8n, Zapier, and AI chat bots- Ability to automate processes using blockchain and AI technologies- Strong understanding of blockchain technology and AI automationIdeal Skills and Experience:- Experience in blockchain development, particularly with Ethereum- Familiarity with DApp and NFT development- Proficient in using AI autom...</t>
+          <t>I'm looking for a talented CGI artist to create captivating 15-30 second videos for our marketing and advertisement campaigns. These videos will primarily be used on social media platforms. Key Requirements:- High-quality, eye-catching CGI- Short video format (15-30 seconds)- Engaging content tailored for social mediaIdeal Skills and Experience:- Proficiency in CGI software (e.g., Blender, Maya)- Experience in creating marketing and advertisement content- Strong understanding of social media trends and requirementsLooking for creativity and technical expertise to enhance our brand's presence.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/blockchain/blockchain-integration-project</t>
+          <t>https://www.freelancer.com/projects/3d-animation/engaging-cgi-ads-for-social</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1294,12 +1294,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Microsoft SQL Query Writing Needed</t>
+          <t>Website Development for Event Management, Corporate Gifting &amp; Creative Services Business</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>I'm looking for an experienced SQL query writer to assist with both optimizing existing queries and creating new ones for data manipulation purposes. The project involves working with select, update, and insert queries to ensure efficient and effective data handling.Key Requirements:- Expertise in writing and optimizing select, update, and insert queries in Microsoft SQL- Ability to analyze existing queries and enhance their performance- Experience in creating new queries tailored for data manipulation tasks- Strong understanding of database structures and indexing for optimizationIdeal Skills and Experience:- Proficiency in Microsoft SQL Server- Experience with data manipulation and query optimization- Strong analytical skills to understand and improve existing queries- A...</t>
+          <t>We are a growing multi-service business specializing in:•Event planning &amp; management (corporate &amp; social events)•Corporate gifting solutions•Creative agency services (branding, design, etc.)•Social media management &amp; digital marketing•Employee joining kits and onboarding experiencesWe are looking for an experienced website developer/designer to create a modern, responsive, and professional website that clearly showcases all our verticals, builds trust with clients, and helps generate leads.Key Requirements:1.Clean &amp; Modern UI/UX – intuitive layout, appealing visuals2.Homepage + Service Pages for each business vertical3.Portfolio/Case Studies – to display our past work4.Contact Page/Form + WhatsApp &amp; ema...</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/database-management/microsoft-sql-query-writing-needed</t>
+          <t>https://www.freelancer.com/projects/web-design/website-development-for-event-management</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1328,12 +1328,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Modern Tee Shirt Graphics Design - NO AI SUBMISSIONS WILL BE ACCEPTED - NEED TRUE GRAPHIC DESIGNER</t>
+          <t>Logo Design Project NW Home Defense</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>I will be choosing MORE THAN ONE DESIGN for the WINNING DESIGNS.  ALL AI SUBMISSIONS  WILL BE IMMEDIATELY REJECTED.  I am looking for a true graphic designer that can submit VECTOR FILES.  You will not receive the award if you do not have vector files - AI files are not vector.  INSPIRATION GRAPHICSVERY IMPORTANT!!! Graphic inspiration files are attached in a PDF.  Please use these as a guide for your entries. PRINT COLORS:BROWNCMYK: 53,72,77,57HEX: #492F24RGB: (73,47,36PANTONE: PMS 476CGOLDCMYK: 0,24,94,0HEX: #FFC425RGB: 255,197,37PANTONE: PMS 123CWhiteLOGOS to INCORPORATE:Vectors of LEFT FACING HORSE logo and WJ logo are attached. WORDS for GRAPHICS: West Jefferson and/ or RoughridersWest Jeff Roughriders, Roughriders, West Jefferson etc.  Some graphics...</t>
+          <t>We’re launching a logo design contest for our new company: NW Home Defense — a home security brand rooted in the Pacific Northwest.Think Brinks Home or ADT, but with a local, nature-integrated vibe. We’re looking for a logo that communicates protection, trust, and peace of mind — all while reflecting the strength and natural beauty of the region.⸻What We’re Looking For:•A primary logo with the full name: NW Home Defense•A secondary or simplified version (e.g., initials, emblem, or icon)•Clean, modern, bold — but warm and rooted in trust &amp; natureThe design should work well on:•Websites•Yard signs•Uniforms•Mobile apps•Vehicle decals⸻ Brand Color PalettePrimary Colors1.Deep...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/jobs//contest/modern-tee-shirt-graphics-design-no-ai-submissions-will-be-accepted-need-true-graphic-designer-2593572</t>
+          <t>https://www.freelancer.com/jobs//contest/logo-design-project-nw-home-defense-2594523</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1362,12 +1362,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education Verification Specialist [Chennai, India]</t>
+          <t>Bug Fixing for VoiceToNotes.ai Mobile &amp; Web Apps</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>I need a freelancer to verify the undergraduate degrees of candidates as part of pre-employment vetting in Chennai, India. Requirements:- Verify authenticity of undergraduate degrees- Conduct checks only from a single institution per candidate- Experience in background verification and access to necessary databasesIdeal Skills:- Background verification expertise- Attention to detail- Knowledge of educational institutions in India</t>
+          <t>I need a skilled developer to help fix some bugs in my app, VoiceToNotes.ai. It's a voice-to-text application that works across mobile and web platforms. The app is already live, but there are a few issues that need to be resolved to improve performance and stability.Tasks Include (but not limited to):Fixing known crashes or unexpected behavior in the mobile app (iOS/Android)Correcting UI/UX glitchesEnsuring accurate voice transcriptionFixing syncing issues between mobile and web appsImproving performance and responsivenessRequirements:Experience with Flutter / React Native / Swift / Kotlin (depending on the app stack)Familiarity with Firebase / AWS backend (if applicable)Debugging and troubleshooting experienceAbility to test across multiple devicesI’ll ...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1377,17 +1377,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/research/education-verification-specialist</t>
+          <t>https://www.freelancer.com/projects/flutter/bug-fixing-for-voicetonotes-mobile</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1396,12 +1396,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Business Showcase Website Development</t>
+          <t>Shopify Store Development</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>I'm looking for an experienced website developer to create a professional business showcase website. The primary goal of this website is to effectively showcase my business.i have e website about img resizer . i want to newly added Bg remove,object remove &amp; image  quality update system . if you interested please knock me</t>
+          <t>I need a Shopify store that will both showcase my brand and sell our physical products.  Key Requirements:  - Must focus on highlighting product details  - Should be visually appealing and user-friendly  - Should have a seamless checkout process  Ideal Skills:  - Experience in Shopify development  - Strong design skills  - Knowledge of e-commerce best practices  - Ability to integrate customer testimonials  Please provide examples of previous work.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/web-development/business-showcase-website-development</t>
+          <t>https://www.freelancer.com/projects/website-design/shopify-store-development-39624154</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1430,12 +1430,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>E-commerce E-Mail Designer</t>
+          <t>Hindi Script Writer Needed for Defense-Focused YouTube Channel</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>’m Maurice, founder of Invisible Brands, one of the leading email marketing agencies for e-commerce brands in the DACH region. We’re based in Germany, currently a team of 18 international talents – and growing fast. Our mission? Helping 7–9 figure D2C brands turn email into their most powerful revenue channel.We’re now looking for a full-time Email Designer (remote) to join our design team and help us scale to the next level.Here’s what we’re looking for:• You’re available to work fully remote :earth_africa:• You’re able to work from 10:00–18:00 CET, Monday to Friday• You have 2+ years experience with Photoshop and Figma• You’re coachable and open to feedback – our Head of Design will person...</t>
+          <t>We're hiring a talented script writer for our Hindi YouTube channel that creates high-quality, engaging, and fact-based content on warfare technology, global defence systems, and military innovations.If you are someone who’s genuinely interested in defense, missiles, fighter jets, military tech, and war strategies – this is for you.Responsibilities:Write full-length YouTube video scripts (8–12 minutes) in Hinglish (spoken Hindi)Start each script with a modern and strong hooking line (0:00–0:30 seconds)Explain complex military and war-tech topics in a clear, engaging, and storytelling formatEnsure accuracy, double-verification of facts, and real-world examplesSuggest visuals or on-screen text (optional but preferred) Requirements:Must be fluent in...</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1445,17 +1445,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/corporate-identity/commerce-mail-designer</t>
+          <t>https://www.freelancer.com/projects/creative-writing/hindi-script-writer-needed-for</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1464,12 +1464,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TikTok/Reel Editor Needed – Long-Term Work Available</t>
+          <t>SEO Strategy for Traffic Increase</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hey!I run a short-form content agency called ReelFuel, and we help brands and businesses create high-performing Reels, TikToks, and Shorts that go viral.I’m looking for a fast, reliable, creative editor who can:Cut down raw clips into engaging 15–60 sec videosAdd viral-style captions, emojis, musicUse CapCut, Premiere Pro, or similar tools What I need now:I’m preparing for client work and want to test 1–2 editors before choosing who to work with long-term.Budget will grow quickly after the first client closes.Bonus if you:Understand TikTok trendsCan batch 10–30 videos per weekHave a portfolio or samplesReply with:2-3 samples of your workYour rate per videoYour turnaround timeLet’s grow together. I’ll take care of the ...</t>
+          <t>I'm seeking an experienced SEO specialist to help increase the traffic to my website. The primary goal of this project is to implement effective SEO strategies that will drive more visitors to the site.Key Requirements:- Develop and execute a comprehensive SEO plan focused on increasing website traffic- Conduct keyword research and optimize existing content- Analyze website performance and identify areas for improvement- Implement on-page and off-page SEO techniques- Monitor and report on traffic growth and SEO performanceIdeal Skills and Experience:- Proven track record in SEO with a focus on traffic generation- Strong understanding of search engine algorithms and ranking factors- Experience with SEO tools such as Google Analytics, SEMrush, or Ahrefs- Ability to analyze ...</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/adobe-premiere-pro/tiktok-reel-editor-needed-long</t>
+          <t>https://www.freelancer.com/projects/google-analytics/seo-strategy-for-traffic-increase</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1498,12 +1498,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Create 150 Themed Visual Designs Using Provided Templates</t>
+          <t>Edit Video in Filmora</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>We need a designer to create 150 themed PSD designs using our provided assets and templates. The work is simple but requires creativity for backgrounds and additional elements.What We Provide:80 ready-made visual assets (you will choose 3 per design based on the given theme)Pre-designed frame template (you will insert this as a separate layer in the PSD)Theme brief for each design (e.g., Birthday, Pets, Flowers, Love, etc.)Your Tasks:Select 3 assets from the provided 80 visuals for each design according to the given theme.Create a themed background (e.g., Birthday theme: balloons, confetti; Pets theme: cute paw prints, etc.).Add our provided frame design as a separate layer in the PSD file.Add extra theme-related elements (e.g., cats/dogs for pet theme, birthday icons for c...</t>
+          <t>i want to make video for youtube. i will provide all the data and screen recordings I want to someone who can represent information in best wat in filmora</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1513,17 +1513,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Design &amp; Creative</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/graphic-design/create-themed-visual-designs-using</t>
+          <t>https://www.freelancer.com/projects/youtube/edit-video-filmora</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-07-18 15:30:07</t>
+          <t>2025-07-20 10:42:46</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1548,12 +1548,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-1000-weekly-virtual-assistant-the-singleton-group-1093611</t>
+          <t>https://remoteok.com/remote-jobs/remote-1000-weekly-virtual-assistant-holdon-now-1093611</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:54</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Languages Instructors</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1578,12 +1578,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-paralegal-ef-law-firm-1092985</t>
+          <t>https://remoteok.com/remote-jobs/remote-languages-instructors-ae-virtual-class-1093209</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:54</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1592,7 +1592,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>E Learning &amp; Membership Operations Specialist</t>
+          <t>Paralegal</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1603,17 +1603,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Entry Level</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-e-learning-membership-operations-specialist-jtine-co-1093621</t>
+          <t>https://remoteok.com/remote-jobs/remote-paralegal-ef-law-firm-1092985</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:54</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Virtual Assistant $25 Hourly</t>
+          <t>E Learning &amp; Membership Operations Specialist</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1633,17 +1633,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Beginner Web Development</t>
+          <t>Entry Level</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-virtual-assistant-25-hourly-brookview-lawncare-1093358</t>
+          <t>https://remoteok.com/remote-jobs/remote-e-learning-membership-operations-specialist-jtine-co-1093621</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1652,7 +1652,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Backend Developer @ lobstr.io Python Scraping Celery</t>
+          <t>Executive Assistant &amp; Office Manager</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1663,17 +1663,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-backend-developer-lobstr-io-python-scraping-celery-lobstr-io-1093607</t>
+          <t>https://remoteok.com/remote-jobs/remote-executive-assistant-amp-office-manager-sword-health-1093673</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sales Development Representative</t>
+          <t>Account Executive Retail</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1698,12 +1698,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-sales-development-representative-heard-1093666</t>
+          <t>https://remoteok.com/remote-jobs/remote-account-executive-retail-quantum-metric-1093672</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Underwriter</t>
+          <t>Senior Product Designer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1723,17 +1723,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Writing &amp; Content</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-underwriter-gravie-1093665</t>
+          <t>https://remoteok.com/remote-jobs/remote-senior-product-designer-alltrails-1093671</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1742,7 +1742,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Full Stack Engineer</t>
+          <t>Data Collection Participant Photo Submission Task</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1758,12 +1758,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-full-stack-engineer-sensor-tower-1093661</t>
+          <t>https://remoteok.com/remote-jobs/remote-data-collection-participant-photo-submission-task-crowdgen-by-appen-1093670</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Senior AI Python Developer</t>
+          <t>Virtual Assistant $25 Hourly</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-senior-ai-python-developer-koombea-1093660</t>
+          <t>https://remoteok.com/remote-jobs/remote-virtual-assistant-25-hourly-brookview-lawncare-1093358</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>User Support Specialist</t>
+          <t>Aprio PH FP&amp;A Analyst</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-user-support-specialist-slate-1093659</t>
+          <t>https://remoteok.com/remote-jobs/remote-aprio-ph-fpampa-analyst-aprio-1093669</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Senior Full Stack Engineer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1848,12 +1848,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-senior-software-engineer-proof-1093658</t>
+          <t>https://remoteok.com/remote-jobs/remote-senior-full-stack-engineer-amk-solutions-1093412</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ML Scientist Foundation Model</t>
+          <t>Backend Developer @ lobstr.io Python Scraping Celery</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1873,17 +1873,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-ml-scientist-foundation-model-egen-1093656</t>
+          <t>https://remoteok.com/remote-jobs/remote-backend-developer-lobstr-io-python-scraping-celery-lobstr-io-1093607</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1892,7 +1892,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Exchange Operations Analyst</t>
+          <t>Sales Development Representative</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1908,12 +1908,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-exchange-operations-analyst-coins-ph-1093648</t>
+          <t>https://remoteok.com/remote-jobs/remote-sales-development-representative-heard-1093666</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1922,7 +1922,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Customer Success Analyst</t>
+          <t>Underwriter</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1933,17 +1933,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Writing &amp; Content</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-customer-success-analyst-voxy-inc-1093647</t>
+          <t>https://remoteok.com/remote-jobs/remote-underwriter-gravie-1093665</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1952,7 +1952,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>QA Analyst</t>
+          <t>Full Stack Engineer</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1963,17 +1963,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-qa-analyst-city-it-1093646</t>
+          <t>https://remoteok.com/remote-jobs/remote-full-stack-engineer-sensor-tower-1093661</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:33</t>
+          <t>2025-07-20 10:43:55</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:58</t>
+          <t>2025-07-20 10:44:19</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:58</t>
+          <t>2025-07-20 10:44:19</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:58</t>
+          <t>2025-07-20 10:44:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:58</t>
+          <t>2025-07-20 10:44:19</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:58</t>
+          <t>2025-07-20 10:44:19</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-07-18 15:31:58</t>
+          <t>2025-07-20 10:44:19</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2262,7 +2262,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>eCommerce Tool Developer - Node.js/Next.js</t>
+          <t>Frontend Engineer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2273,17 +2273,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Beginner Web Development</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/ecommerce-tool-developer-node-js-next-js-2036414</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2036982</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2292,7 +2292,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Back-End Web Developer</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/python-developer-2035478</t>
+          <t>https://remotive.com/remote-jobs/software-dev/back-end-web-developer-2036955</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2322,7 +2322,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Senior Front End Engineer</t>
+          <t>Freelance Web Developer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2338,12 +2338,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-engineer-2035492</t>
+          <t>https://remotive.com/remote-jobs/software-dev/freelance-web-developer-2036890</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2352,7 +2352,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineer</t>
+          <t>AEM Vue.js Developer</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2363,17 +2363,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/full-stack-software-engineer-2035493</t>
+          <t>https://remotive.com/remote-jobs/software-dev/aem-vue-js-developer-2036872</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2382,7 +2382,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WP Web Developer</t>
+          <t>eCommerce Tool Developer - Node.js/Next.js</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/wp-web-developer-2035498</t>
+          <t>https://remotive.com/remote-jobs/software-dev/ecommerce-tool-developer-node-js-next-js-2036414</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2412,7 +2412,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Frontend Engineer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2423,17 +2423,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2035501</t>
+          <t>https://remotive.com/remote-jobs/software-dev/python-developer-2035478</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Senior .NET Web Developer</t>
+          <t>Senior Front End Engineer</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2458,12 +2458,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-net-web-developer-2035503</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-engineer-2035492</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2472,7 +2472,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Frontend Software Engineer</t>
+          <t>Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2483,17 +2483,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/frontend-software-engineer-2035601</t>
+          <t>https://remotive.com/remote-jobs/software-dev/full-stack-software-engineer-2035493</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2502,7 +2502,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PHP Web Developer</t>
+          <t>WP Web Developer</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/php-web-developer-2035554</t>
+          <t>https://remotive.com/remote-jobs/software-dev/wp-web-developer-2035498</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2532,7 +2532,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>(Senior) Web Developer Frontend/Backend</t>
+          <t>Frontend Engineer</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2543,17 +2543,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-web-developer-frontend-backend-2035569</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2035501</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2562,7 +2562,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>React Developer</t>
+          <t>Senior .NET Web Developer</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2573,17 +2573,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/react-developer-2035580</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-net-web-developer-2035503</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2592,7 +2592,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Senior Front End Developer</t>
+          <t>Frontend Software Engineer</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2603,17 +2603,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-developer-2035595</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-software-engineer-2035601</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2622,7 +2622,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>PHP Web Developer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2633,17 +2633,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2035378</t>
+          <t>https://remotive.com/remote-jobs/software-dev/php-web-developer-2035554</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>(Senior) Web Developer Frontend/Backend</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2034824</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-web-developer-frontend-backend-2035569</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2682,7 +2682,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>React Developer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2693,17 +2693,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/full-stack-developer-2035363</t>
+          <t>https://remotive.com/remote-jobs/software-dev/react-developer-2035580</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Team Lead / Software Developer</t>
+          <t>Senior Front End Developer</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/team-lead-software-developer-2035242</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-developer-2035595</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2742,7 +2742,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Software Engineer II, Mobile</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2753,17 +2753,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mobile Development</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-ii-mobile-2035253</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2035378</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2772,7 +2772,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2783,17 +2783,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-2035254</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2034824</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2818,12 +2818,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-2035270</t>
+          <t>https://remotive.com/remote-jobs/software-dev/full-stack-developer-2035363</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Team Lead / Software Developer</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2843,17 +2843,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2035289</t>
+          <t>https://remotive.com/remote-jobs/software-dev/team-lead-software-developer-2035242</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2862,7 +2862,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Software Engineer II, Mobile</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2873,17 +2873,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Mobile Development</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-2035322</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-ii-mobile-2035253</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-2035320</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-2035254</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2922,7 +2922,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ServiceNow Developer</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2938,12 +2938,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/servicenow-developer-2035205</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-2035270</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-07-18 15:32:32</t>
+          <t>2025-07-20 10:44:45</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>

--- a/job_listings.xlsx
+++ b/job_listings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WoW (World of Warcraft) LUA/XML Addon Development</t>
+          <t>Website Content Creation for Professional Woman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Please read completely before placing a bid !Please bid only if you also plan to respond...Please someone who is interested in doing several projectsPlease make realistic offers and no fake offers where the price multiplies afterwards.Please keep in mind that changes can still be made during the testing phase !I'm seeking a developer to create a World of Warcraft addon to modify the interface, specifically for bag management and minimap customization. Knowledge of LUA and XML is essential.Key Features:- Movable bags- Sorting function- Custom bag categories- Customizable minimap (movable and resizable)Existing addons are outdated and need updating. Ideal Skills:- Proficiency in LUA &amp; XML- Experience with WoW addons- Strong problem-solving skills- Attention to de...</t>
+          <t>I need engaging and professional website content for my personal brand. Essential tasks include:- Crafting compelling copy for Home, About Us, and Product/Service pages.- Demonstrating my expertise and value in the content.Ideal Skills &amp; Experience:- Proven experience in website content creation.- Ability to write in a professional yet engaging tone.- Strong understanding of personal branding.Please share relevant portfolio samples.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/xml/wow-world-warcraft-lua-xml</t>
+          <t>https://www.freelancer.com/projects/articles/website-content-creation-for</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,12 +512,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>App Debugging for VoiceToNotes.ai</t>
+          <t>AI Influencer Creation and Monetization</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hello,I’m looking for an experienced mobile app developer to help identify and fix bugs in my mobile application , which is already live on both the App Store and Play Store. is a voice-to-text app that converts speech into organized, searchable notes. The app is built for productivity and is used by professionals for capturing meetings, interviews, and personal voice memos.App Download Links (for testing):iOS App Store: Android Play Store: Scope of Work:Download and test the app on both Android and iOS devicesIdentify any bugs, crashes, or UI/UX issuesFix confirmed bugs in the codebase (source code access will be provided after selection)Ensure smooth performance and proper transcription flowCommunicate clearly about any issues you encounterNote: This project i...</t>
+          <t>I'm seeking an expert to create, implement, and monetize an AI influencer on YouTube. The goal is to generate $40k per month.Requirements:- The AI influencer will focus on health and wellness educational tutorials.Ideal skills and experience:- Experience in AI content creation- Strong background in YouTube growth strategies- Expertise in health and wellness topics- Proven track record in monetizing digital contentPlease provide a detailed plan and relevant experience in your bid.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,17 +527,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/flutter/app-debugging-for-voicetonotes</t>
+          <t>https://www.freelancer.com/projects/ai-content-creation/influencer-creation-monetization</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,12 +546,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Angular Developer Needed for A4 PDF Preview with Smart Pagination</t>
+          <t>Retail Sales Data Analysis Expert Needed</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I need an experienced Angular developer to help enhance a PDF preview component for dynamically rendered question papers.Currently, entire question blocks (including text, image, options, and answers) are treated as single units during pagination. This results in a lot of wasted white space when the full block doesn’t fit on a page.Your Task:Implement granular pagination, where each part of a question (question text, question image, each option, and explanation/answer) is treated as an independent block that can break across pages.Maintain a clean and accurate A4 layout (210mm × 297mm) with proper padding and print-readiness.Support both single-column and two-column layouts.Ensure image rendering and MathJax equations are correctly handled after pagination.Fix white ...</t>
+          <t>I am seeking a detail-oriented Junior Data Analyst with over 1.10 years of hands-on experience in SQL, Python, Power BI, Tableau, and Excel, complemented by 3 years of expertise in supply chain analytics. The primary goal of this project is to boost sales and revenue within the retail industry by leveraging sales data.Key Requirements:- Analyze retail sales data to identify trends and opportunities for revenue growth- Build and optimize ETL pipelines for efficient data processing- Create insightful dashboards using Power BI or Tableau to visualize key performance indicators and sales metrics- Deliver data-driven recommendations to support business decision-makingIdeal Skills and Experience:- Proficiency in SQL, including Joins, CTE, Window Functions, Aggregates, and Optimization-...</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/angular/angular-developer-needed-for-pdf</t>
+          <t>https://www.freelancer.com/projects/big-data-sales/retail-sales-data-analysis-expert</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,12 +580,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vedic Astrology Consultation Website Development</t>
+          <t>Spark Migration to Kubernetes Cluster</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I need a comprehensive Vedic astrology website. The website should allow clients to schedule consultations, submit their birth details, and make payments.Key features:- Integrated calendar with real-time availability for booking consultations- Online form with specific fields to collect clients' birth details- Payment processing for Credit/Debit Card, PayPal, Bank Transfer, and UPIIdeal Skills and Experience:- Web development expertise- Experience with scheduling systems and payment gateways- Familiarity with form-building toolsLooking forward to your bids!It would be better if they use Artificial Intelligence for the same.</t>
+          <t>I need assistance migrating from Spark client mode to Spark cluster mode on Kubernetes for my office project, and upgrading to Spark 4.0. Currently, I'm using Spark 3.4.2, and my Kubernetes cluster is partially set up but requires further configuration. The primary focus of this migration is on ETL pipelines.Key Requirements:- Migrate Spark applications from client mode to cluster mode on Kubernetes- Upgrade Spark version from 3.x to 4.0- Complete the configuration of the existing Kubernetes cluster- Ensure seamless migration of ETL pipelinesIdeal Skills and Experience:- Strong expertise in Apache Spark, particularly in upgrading and migrating versions- Experience with Kubernetes, including setting up and configuring clusters- Proficiency in managing and migrating ETL pipel...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/web-development/vedic-astrology-consultation-website</t>
+          <t>https://www.freelancer.com/projects/apache-spark/spark-migration-kubernetes-cluster</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,12 +614,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ENTER QUICKLY - DESIGN CONTEST - 6 x 9 Postcard Design</t>
+          <t>Romantic Video Editor Needed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I need a print-ready 6 x 9 postcard designed.Here are the specifics:Headline (Front):FINAL NOTICE — YOU’RE OUT OF TIMEYour Certificate is OVERDUE.Visual:- Council-style WARNING NOTICE on a front gate, pool in background blurred.- Text: "WARNING NOTICE Your Pool Certificate Is OVERDUE!"Requirements:- Source file in Photoshop (PSD)- Print-ready file- Copy the attached image- Add my phone number and website at the bottom (0489 277 377  )Ideal Skills and Experience:- Proficiency in Adobe Photoshop- Experience with print design- Attention to detail</t>
+          <t>I'm looking for a talented video editor to create two 5-minute videos for a birthday and an anniversary celebration. The videos should be romantic and sentimental, capturing the essence of these special occasions. Key Requirements:- Edit two 5-minute videos with a romantic and sentimental style- Incorporate personalized voice messages or songs as the music background- Apply color grading to enhance the visual appeal- Add appropriate titles to highlight key momentsIdeal Skills and Experience:- Proficient in video editing software- Experience in creating romantic and sentimental videos- Ability to work with personalized audio content- Skilled in color grading techniques to enhance video qualityIf you have a passion for creating heartfelt videos and can bring these special ...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/jobs//contest/enter-quickly-design-contest-x-postcard-design-2594532</t>
+          <t>https://www.freelancer.com/projects/color-grading/romantic-video-editor-needed</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,12 +648,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Elegant Sale Event Flyer Design</t>
+          <t>Looking for Developer with .NET Core, MAUI, Blockchain &amp; Crypto Expertise</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I'm looking for a talented graphic designer to create an elegant and luxurious flyer for promoting a sale event for our furnishing studio business. We have all concepts ready, and need a designer who can bring those concepts to life. Requirements:- Design an elegant and luxurious flyer- Concepts provided, need creative execution- Incorporate exclusive offers/discounts- Include contact information and operating hoursIdeal Skills and Experience:- Proven graphic design experience- Portfolio showcasing elegant/luxurious designs- Proficient in design software (Adobe Suite, etc.)- Attention to detail and creativityLooking forward to your bids!</t>
+          <t>Description:We are seeking a skilled and reliable developer (or team) with expertise in:.NET Core (for backend/API development)MAUI (for cross-platform mobile/desktop apps)Blockchain &amp; Crypto technologies (smart contracts, wallets, DApps, integration)Project Overview:Develop and maintain a modern, secure application that will include:Cross-platform client built using .NET MAUIBackend services and APIs in .NET CoreIntegration with blockchain (e.g., smart contracts, transactions, crypto wallets)The exact scope will be discussed, but it involves building real-world crypto features on top of solid Microsoft stack foundations.Ideal Candidate:Strong experience with .NET Core and C#Hands-on experience with .NET MAUI (or )Solid knowledge of blockchain technologies (e.g., Ethe...</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/adobe-creative-suite/elegant-sale-event-flyer-design</t>
+          <t>https://www.freelancer.com/projects/dot-net-core/looking-for-developer-with-net</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,12 +682,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bug Fixing for VoiceToNotes.ai Mobile App (iOS &amp; Android)</t>
+          <t>Develop TradingView Alert Automation App</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hello,I’m looking for an experienced mobile app developer to help identify and fix bugs in my mobile application , which is already live on both the App Store and Play Store. is a voice-to-text app that converts speech into organized, searchable notes. The app is built for productivity and is used by professionals for capturing meetings, interviews, and personal voice memos.App Download Links (for testing):iOS App Store: Android Play Store: Scope of Work:Download and test the app on both Android and iOS devicesIdentify any bugs, crashes, or UI/UX issuesFix confirmed bugs in the codebase (source code access will be provided after selection)Ensure smooth performance and proper transcription flowCommunicate clearly about any issues you encounterNote: This project i...</t>
+          <t>I'm seeking an experienced Python or C programmer to create a desktop application that automates order execution using TradingView alerts. The application should integrate with Zerodha and Dhan broker APIs and be compatible with Windows operating systems.Key Requirements:- Develop a desktop application for Windows- Integrate with Zerodha and Dhan broker APIs- Automate order execution based on TradingView alerts- Include features for backtesting, real-time order execution, and custom indicatorsIdeal Skills and Experience:- Proficiency in Python or C programming- Experience with broker API integration, especially Zerodha and Dhan- Strong understanding of TradingView alerts and order execution automation- Familiarity with developing Windows-compatible desktop applications- A...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/debugging/bug-fixing-for-voicetonotes-mobile</t>
+          <t>https://www.freelancer.com/projects/api-integration/develop-tradingview-alert-automation-app</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,12 +716,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Texas Real Estate Title Research</t>
+          <t>Equine Nutrition Magazine Design Needed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I'm seeking a skilled professional to conduct comprehensive title research for residential properties in Texas. The project involves title abstracting, property title searches, and real estate research to ensure thorough and accurate findings.Key Requirements:- Conduct title abstracting and property title searches for residential properties- Provide detailed reports on ownership history- Identify any liens and encumbrances on the property- Verify property boundaries and surveysIdeal Skills and Experience:- Extensive experience in title abstracting and property title searches- Familiarity with Texas real estate laws and regulations- Strong attention to detail and analytical skills- Ability to deliver comprehensive and accurate reportsIf you have the expertise in real esta...</t>
+          <t>I am seeking a talented designer to create a captivating magazine focused on equine nutrition for our customers. The magazine should be informative, visually appealing, and engaging, offering a comprehensive look into various aspects of equine nutrition.Key Requirements:- Design an A4, 20 page magazine centered on equine nutrition.- Design a front cover- Design a table of contents- Include a mix of content: articles and research, dietary tips and guidelines, case studies and success stories, and product sale sections.- Incorporate high-quality images to enhance the visual appeal.- Ensure the layout is clean, professional, and easy to navigate.Ideal Skills and Experience:- Experience in magazine design and layout.- Strong graphic design skills with a focus on creating visually a...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/real-estate/texas-real-estate-title-research</t>
+          <t>https://www.freelancer.com/projects/magazine-design/equine-nutrition-magazine-design-needed</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,12 +750,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Blockchain Expert</t>
+          <t>Mechanical Design and Vibration Analysis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Blockchain ExpertWe're looking for blockchain experts who know everything about blockchain and contracts.NOT asking for an advance.</t>
+          <t>I would like you to design the turbine drivetrain in detail, including a technical drawing with dimensions and supporting calculations for the shaft and bearings. I also want  work involving the analyses of a system’s vibration by identifying potential vibration sources, estimating the critical speed using Rayleigh-Ritz and Dunkerley methods, and calculating torsional and longitudinal vibration frequencies. You must also assess the impact of vibration and suggest further analysis to improve understanding.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Design &amp; Creative</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/blockchain/blockchain-expert-39624190</t>
+          <t>https://www.freelancer.com/projects/mechanical-design/mechanical-design-vibration-analysis</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,12 +784,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Modern WordPress Landing Page Design</t>
+          <t>Tech Pack for Dresses</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I need a clean, modern, and responsive WordPress landing page for a business website. The goal is to present company information, services, and a strong call-to-action to convert visitors into leads.Requirements:- Custom-designed WordPress landing page (no bloated themes)- Mobile responsive and fast loadingSections to include:- Hero with headline &amp; CTA- About Us- Services/Offerings (highlighting Product Development)- Testimonials- Contact Form (integrated with email)- Footer with social links and basic infoPlease share relevant landing pages you have built using WordPress. Preference will be given to those with a good design sense and timely communication.</t>
+          <t>I'm seeking a skilled tech pack designer to create comprehensive tech packs for a range of dresses.Requirements:- Detailed measurements- Fabric and trim details- Construction notes- Ability to work from specific styles I provideIdeal Skills:- Experience in designing tech packs for dresses- Strong knowledge of fabrics, trims, and construction techniques- Attention to detail and accuracy- Ability to interpret and execute from provided style referencesPlease include samples of previous work with your bids.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -799,17 +799,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/web-design/modern-wordpress-landing-page-design</t>
+          <t>https://www.freelancer.com/projects/3d-modelling/tech-pack-for-dresses</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,12 +818,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Create Social Media Content for NGO</t>
+          <t>YouTube Video Editing Needed</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I am looking for a talented freelancer to help create impactful social media content and reels for our non-profit organization dedicated to helping the poor. Our goal is to raise awareness and engage our audience across multiple platforms.Key Requirements:- Develop engaging social media posts for Facebook, Instagram, and Twitter- Create compelling awareness campaign reels to highlight our cause- Ensure content aligns with our mission and values as a non-profitIdeal Skills and Experience:- Experience in social media content creation and management- Strong storytelling skills to convey our message effectively- Ability to create visually appealing and impactful reels- Passion for social causes and understanding of non-profit workJoin us in making a difference by spreading awarene...</t>
+          <t>I need professional video editing services for my YouTube channel (@BrianScott1111). The videos will be 30 minutes to 1 hour long and will focus on meditations, activations, and metaphysical discussions. I have access to most stock footage and AI video options. Looking to edit 3 to 8 videos. Price is negotiable based on quality.Key Requirements:- Edit videos to maintain viewer engagement for 30 minutes to 1 hour.- Incorporate elements suitable for meditation and metaphysical content.- Ensure high-quality audio and visual synchronization.Ideal Skills and Experience:- Experience in editing YouTube videos, particularly in the meditation or metaphysical niche.- Proficiency in video editing software.- Ability to enhance video content with suitable effects and transitions.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -833,17 +833,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/social-media-management/create-social-media-content-for</t>
+          <t>https://www.freelancer.com/projects/youtube/youtube-video-editing-needed</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,12 +852,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Book Formatting for Print</t>
+          <t>WordPress AdForest Classified Site Development</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>I'm looking for a skilled professional to format my book for both paperback and hardcover editions. The final size of the book will be 6 x 9 inches.Requirements:- Format a PDF manuscript- Prepare for both paperback and hardcover- No specific font preferenceIdeal Skills and Experience:- Expertise in book formatting- Proficiency with PDF editing tools- Attention to detail and design aestheticsPlease provide samples of previous work.</t>
+          <t>I need an experienced WordPress developer to design a classified website using the AdForest theme. The site will primarily facilitate buying and selling items, with job listings in technology, healthcare, and finance sectors Real Estate leads etc... Demoi Theme installedKey Requirements:- Implement advanced search filters- Create a user rating system- Integrate payment gatewaysIdeal Skills and Experience:- Proficiency in WordPress and AdForest theme- Experience with custom functionalities- Strong knowledge of payment gateway integration- Familiarity with building user rating systems</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/jobs//contest/book-formatting-for-print-2594504</t>
+          <t>https://www.freelancer.com/projects/wordpress-design/wordpress-adforest-classified-site</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,12 +886,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Modern Logo Design for Institute</t>
+          <t>Manager OF</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I need a modern logo for my institute. Requirements:- Modern style- Use of blue, green, and red colors- Open to creative input on elements or symbolsIdeal Skills:- Proficiency in modern logo design- Strong color theory knowledge- Creativity in incorporating various elements</t>
+          <t>I'm looking for a manager who can manage the account, create the sales strategy, and speak with clients.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/creative-design/modern-logo-design-for-institute</t>
+          <t>https://www.freelancer.com/projects/sales/manager-39630191</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,12 +920,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Retro Basketball Singlet Design Needed</t>
+          <t>Arch with Weapons</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I'm seeking a talented designer to add creative flair to a custom printed basketball singlet. I already have the main concept in place, but I need someone with experience in sports uniforms to bring a retro and classic look to life.Key Requirements:- Incorporate a retro and classic design style- Use classic color schemes, specifically oranges and argyle sweater tones- Enhance the existing concept with creative design elementsIdeal Skills and Experience:- Strong background in designing sports uniforms- Proficiency in creating retro and classic aesthetics- Ability to work with specific color schemes and design elements- Creative flair to elevate the existing conceptIf you have a passion for sports design and a knack for retro styles, I'd love to see your ideas!</t>
+          <t>3D Design of Wall. 3D Wall on Two Sides (same design on both sides). 3D Weapons on One Side (smooth back). STL file for 3D printing in resin.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Design &amp; Creative</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/sports-design/retro-basketball-singlet-design-needed</t>
+          <t>https://www.freelancer.com/projects/3d-modelling/arch-with-weapons</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,12 +954,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Travel Website Development: TripXplore</t>
+          <t>Social Media App UI/UX Design</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TripXplore Travel Website Requirements – At a Glance1. Core PagesHomepage – Highlights upcoming trips, key benefits, and CTAs (Book Now, View Trips).Trips Listing Page – Show all available trips with filters (location, date, price).Trip Details Page – Full itinerary, inclusions, photos, FAQs, booking option.Booking Page – Form + payment gateway (Razorpay/UPI), auto confirmation.About Us Page – Story, team, mission.Contact Page – WhatsApp integration, email, form.Blog/Guide Section – Travel tips, student guides (for SEO &amp; trust).2. Key FeaturesTrip cards with dynamic filtering.Mobile-friendly responsive design.Admin panel to add/edit trips.Partial &amp; full payment options.WhatsApp automation (post booking).Test...</t>
+          <t>I'm looking for an experienced UI/UX designer to create a modern, clean, and user-friendly interface for a social media app. The design should be tailored to my brand and user needs.Key requirements include:- Mobile-first, responsive design- Built using Figma with clear structure and reusable components- Key features: login/signup flows, personalized user profiles, feed layouts, interactive post designs (like, comment, share), stories, explore tabs, and chat screens- Consistent styling, smooth user flow, and intuitive navigation across all screensDeliverables:- High-fidelity mockups- Complete design system (colors, fonts, buttons, icons)- Clickable prototype (if needed)Ideal skills and experience:- Strong portfolio in social and content-sharing platforms- Expertise in F...</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -969,17 +969,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/nextjs/travel-website-development-tripxplore</t>
+          <t>https://www.freelancer.com/projects/ui-design/social-media-app-design</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WooCommerce Optimization</t>
+          <t>Crypto Trading Assistant Needed</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hi!I'm looking for a WooCommerce expert to help me improve the performance and stability of my small business online store.Here are some details about my website:WordPress + WooCommerce, hosted on o2switch Cloud (shared cloud)Over 3,000 products, and still growingMultilingual setup using WPML (which adds significant load)We use the following tools and services:WP Rocket (for caching and optimization)Redis Object CacheCloudflare (CDN + DNS)➤ Please note: all the plugins currently installed are essential to the store’s operation.However, we are still experiencing:Database connection errorsServer connection timeoutsSlow loading times, especially on product/category pagesWhat we need:A technical audit (plugins, database, theme, server config)Help i...</t>
+          <t>I'm seeking a Crypto Swap Trading Assistant to help with arbitrage trading. Training will be provided, making this ideal for beginners.Key Responsibilities:- Monitoring market conditionsIdeal Skills and Experience:- Interest in cryptocurrency- Willingness to learn- Analytical mindsetLooking forward to your bids!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development Internship</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/wordpress/woocommerce-optimization-39622610</t>
+          <t>https://www.freelancer.com/projects/cryptocurrency/crypto-trading-assistant-needed-39630138</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,12 +1022,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Python Full Stack Developer Training</t>
+          <t>Modern Website Header and Banner Redesign (using Photoshop)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I'm seeking an experienced Python Full Stack Developer Trainer to conduct online live sessions. The trainees are advanced in Python and require comprehensive training in:- Front-end development- Back-end development- Database integrationIdeal Skills and Experience:- Expertise in Python and full stack development- Proven experience in teaching advanced developers- Strong communication skills for online training- Familiarity with modern development frameworks and toolsLooking forward to your proposals!</t>
+          <t>I'm looking for a talented designer to create a modern website header and banner using Photoshop. The final output should be delivered as a PSD file. The design should incorporate a logo, navigation menu, and banner, all styled in a contemporary fashion.Key Requirements:- Design a modern website header and banner- Include the logo, navigation menu, and banner in the design- Use specific colors as per my preferences- Deliver the final design in a PSD file formatIdeal Skills and Experience:- Proficiency in Adobe Photoshop- Strong graphic design skills with a focus on modern aesthetics- Experience in designing website headers and banners- Ability to incorporate specified colors and elements effectivelyIf you have a keen eye for detail and a passion for modern design, I woul...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/full-stack-development/python-full-stack-developer-training</t>
+          <t>https://www.freelancer.com/projects/adobe-photoshop/modern-website-header-banner-redesign</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,12 +1056,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>API Documentation Specialist</t>
+          <t>Traditional Oil Painting from Digital Image</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I need a skilled technical writer to create comprehensive API documentation. This is crucial for our developers and users.Key requirements:- Expertise in technical writing, particularly in API documentation- Ability to understand complex technical concepts and translate them into clear, concise documentation- Experience with documentation tools and platforms- Strong attention to detail and organization skillsIdeal skills and experience:- Proven track record in writing API docs- Familiarity with software development and APIs- Previous work samples or portfolioLooking forward to your proposals!</t>
+          <t>I am seeking a skilled traditional artist to reproduce a digital image as a hand-painted oil painting on canvas. This is for a physical artwork, not digital or printed. The painting must be done entirely by hand using oil paints on canvas, and I will provide the reference image directly. You must create exactly as the reference image.Work must be 100% handmade — no digital tools or printed canvasesRequirements:•Medium: Oil paint on canvas•Dimensions: 70 x 140 cm (horizontal layout)•Execution: 100% hand-painted — no digital art, no prints•Final Deliverable: The physical original painting•Shipping: Must ship the rolled canvas (not stretched) in a secure tube via DHL, FedEx, or similar reliable courier. International expedited shipping r...</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development Internship</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/documentation/api-documentation-specialist</t>
+          <t>https://www.freelancer.com/projects/oil-painting/traditional-oil-painting-from-digital</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1090,12 +1090,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dolibarr CRM Setup for Small Team</t>
+          <t>Electronics Pickup and Delivery</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I'm looking for a skilled freelancer to set up Dolibarr for my business, focusing on CRM and customer management. The system will be used by a small team of 1-5 users, and I need it configured to enhance our customer relationship management processes.Key Requirements:- Install and configure Dolibarr with a focus on CRM functionalities- Customize the system to suit our business needs and workflows- Ensure user-friendly access and navigation for a small team- Provide training or documentation for effective useIdeal Skills and Experience:- Experience with Dolibarr setup and customization- Strong understanding of CRM systems and customer management- Ability to tailor solutions for small teams- Good communication skills for training and supportI'm eager to streamline our...</t>
+          <t>I need a reliable service to pick up and deliver company-owned computers and laptops. Requirements:- Pickup and delivery of electronics- Secure handling of items- Timely and safe transportationIdeal Skills and Experience:- Experience with transporting sensitive equipment- Good track record of punctuality- Ability to manage logistics efficientlyPlease provide your bids with relevant experience.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/training/dolibarr-crm-setup-for-small</t>
+          <t>https://www.freelancer.com/projects/inventory-management/electronics-pickup-delivery</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,12 +1124,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Create Educational Men's Fashion Videos</t>
+          <t>Social Media Manager Needed</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I'm seeking a talented freelancer to create engaging YouTube videos focused on men's fashion, specifically providing educational content on styling tips. The videos should be in a voiceover with demonstration format, allowing viewers to easily follow along with the advice given.Key Requirements:- Develop educational/how-to videos on men's styling tips- Use a voiceover with demonstration format to clearly convey information- Create eye-catching thumbnails for each video to attract viewers- Ensure high-quality video production and editingIdeal Skills and Experience:- Experience in video production and editing for YouTube- Strong understanding of men's fashion and styling- Ability to create compelling and informative content- Skills in graphic design for creati...</t>
+          <t>I'm looking for an experienced social media manager to handle both Facebook and Instagram for my brand. Key Responsibilities:- Create engaging posts and updates- Develop captivating Stories and Reels- Assist with scheduling contentIdeal Skills and Experience:- Proven track record in social media management- Strong content creation skills- Familiarity with Facebook and Instagram algorithms- Excellent organizational and scheduling abilitiesPlease provide a portfolio with relevant experience.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/graphic-design/create-educational-men-fashion-videos</t>
+          <t>https://www.freelancer.com/projects/social-media-management/social-media-manager-needed-39630179</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1158,12 +1158,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Solar Inverter Power Output Issue</t>
+          <t>Casual SEO Blog Writer Needed at $0.8/Article FIXED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>I am experiencing a problem with my solar inverter, specifically that it is not providing any power output. I have already checked and confirmed that the solar panel connections to the inverter are properly connected, so the issue seems to lie elsewhere.Key Requirements:- Diagnose and resolve the no power output issue with the solar inverter- Ensure all components are functioning correctly and efficiently- Provide guidance on any necessary repairs or replacementsIdeal Skills and Experience:- Expertise in solar inverter systems and troubleshooting- Strong understanding of solar panel and inverter connections- Experience in diagnosing and fixing power output issues- Ability to provide clear instructions and recommendations for maintenance and repairI am seeking a knowledgeable p...</t>
+          <t>I'm looking for a talented writer to create engaging blog posts that will enhance our SEO efforts. The content should focus on health and fitness topics and be written in a casual tone to connect with our audience effectively.Key Requirements:- Write SEO-optimized blog posts on health and fitness- Use a casual and approachable writing style- Incorporate relevant industry trends, how-to guides, and case studies- Ensure content is engaging and informativeIdeal Skills and Experience:- Proven experience in writing SEO-friendly content- Strong understanding of health and fitness topics- Ability to write in a casual and engaging tone- Familiarity with keyword research and SEO best practicesI'm excited to see your creative approach to making our blog stand out!</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/solar/solar-inverter-power-output-issue</t>
+          <t>https://www.freelancer.com/projects/blog-writing/casual-seo-blog-writer-needed</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1192,12 +1192,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Comprehensive Healthcare Video Consultation App</t>
+          <t>Digital Marketing Specialist Needed</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>I'm developing a healthcare web app focused on providing online video consultations as the primary feature. The app will also support additional services such as investigations requesting, phlebotomy, e-prescriptions, specialist reviews, and clinical report reviews.Key Requirements:- Develop a robust online video consultation platform- Integrate live chat and consultation recording features- Enable users to request and review lab test, radiology, and pathology reports- Facilitate e-prescriptions and specialist reviews- Include options for requesting phlebotomy and other healthcare servicesIdeal Skills and Experience:- Strong background in web app development, particularly in healthcare- Experience with video conferencing technologies and live chat integration- Familiarity ...</t>
+          <t>I'm seeking a skilled digital marketer to promote my website with the primary goal of generating leads and sales. Focus Areas:- Social Media Marketing- Search Engine Optimization (SEO)Target Audience: Both businesses and consumersIdeal Skills and Experience:- Proven track record in increasing sales and leads- Expertise in crafting and managing effective social media campaigns- Strong knowledge and experience in SEO techniques- Ability to analyze and report on performance metrics- Excellent communication and content creation skillsLooking forward to your proposals!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/web-development/comprehensive-healthcare-video</t>
+          <t>https://www.freelancer.com/projects/content-marketing/digital-marketing-specialist-needed-39630174</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1226,12 +1226,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Vintage Logo Design for Startups</t>
+          <t>Odoo eCommerce Customization &amp; Integration</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I'm seeking a talented logo designer to create vintage-style logos for various companies, specifically tech startups and food &amp; beverage brands.Requirements:- Vintage aesthetic with a modern touch- Incorporation of icons/emblemsIdeal Skills:- Strong portfolio in vintage logo design- Experience with tech and food &amp; beverage industries- Proficiency in design software (Adobe Illustrator, etc.)- Creative and detail-orientedPlease provide samples of previous work and a rough timeline.</t>
+          <t>I'm looking for an experienced Odoo developer to customize and integrate various aspects of my Odoo eCommerce platform. The project involves tailoring product pages, checkout processes, and user account pages to better suit our business needs. Additionally, I require integration with several third-party services to enhance functionality and streamline operations.Key Requirements:- Customize product pages with design/layout changes and functionality modifications.- Revamp the checkout process for improved user experience.- Update user account pages to align with business requirements.- Integrate with payment gateways, shipping providers, and marketing tools.Ideal Skills and Experience:- Proven experience with Odoo eCommerce customization and integration.- Strong understanding...</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/adobe-illustrator/vintage-logo-design-for-startups</t>
+          <t>https://www.freelancer.com/projects/php/odoo-ecommerce-customization-integration</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1260,12 +1260,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Engaging CGI Ads for Social Media For Navratri Event</t>
+          <t>Fix Website Font Display Issue</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I'm looking for a talented CGI artist to create captivating 15-30 second videos for our marketing and advertisement campaigns. These videos will primarily be used on social media platforms. Key Requirements:- High-quality, eye-catching CGI- Short video format (15-30 seconds)- Engaging content tailored for social mediaIdeal Skills and Experience:- Proficiency in CGI software (e.g., Blender, Maya)- Experience in creating marketing and advertisement content- Strong understanding of social media trends and requirementsLooking for creativity and technical expertise to enhance our brand's presence.</t>
+          <t>I need assistance with fixing a font display issue on my website. The font is not displaying correctly across the entire website only in Chrome. It works on Safari though. The site is built using WordPress, and I am seeking a solution to ensure the fonts render as intended.Key Requirements:- Resolve the issue of fonts not displaying correctly across the entire website.- Work with WordPress to implement the fix.Ideal Skills and Experience:- Experience in troubleshooting font display issues.- Familiarity with static website structures and styling.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1275,17 +1275,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/3d-animation/engaging-cgi-ads-for-social</t>
+          <t>https://www.freelancer.com/projects/web-design/fix-website-font-display-issue</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1294,12 +1294,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Website Development for Event Management, Corporate Gifting &amp; Creative Services Business</t>
+          <t>[Venice, Italy] Hiring specimen collector for pre-employment drug testing (Training Provided) -- 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>We are a growing multi-service business specializing in:•Event planning &amp; management (corporate &amp; social events)•Corporate gifting solutions•Creative agency services (branding, design, etc.)•Social media management &amp; digital marketing•Employee joining kits and onboarding experiencesWe are looking for an experienced website developer/designer to create a modern, responsive, and professional website that clearly showcases all our verticals, builds trust with clients, and helps generate leads.Key Requirements:1.Clean &amp; Modern UI/UX – intuitive layout, appealing visuals2.Homepage + Service Pages for each business vertical3.Portfolio/Case Studies – to display our past work4.Contact Page/Form + WhatsApp &amp; ema...</t>
+          <t>SummaryWe are part of a global network providing drug testing services, with a presence in multiple countries.Our client requires us to conduct drug testing in Piazzale Leonardo da Vinci 8/11 Scala C 30172 Venezia Mestre Italy. This testing is part of a pre-employment background check for new hires. As a certified company, we do not require you to have any prior licenses or experience. We will provide comprehensive training, necessary supplies, and tools.Key Responsibilities- Scheduled session at the candidate’s residence or a nearby meeting room (venue cost will be covered)- Collect samples from the client's residence or office, or arrange to rent a meeting room for the session.- Perform the testing following our guidelines.- Send the test results to us- Follow provide...</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development Internship</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/web-design/website-development-for-event-management</t>
+          <t>https://www.freelancer.com/projects/communications/venice-italy-hiring-specimen-collector-39629345</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1328,12 +1328,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Logo Design Project NW Home Defense</t>
+          <t>Expert on Property Lead Generation &amp; Facebook Ads Needed</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>We’re launching a logo design contest for our new company: NW Home Defense — a home security brand rooted in the Pacific Northwest.Think Brinks Home or ADT, but with a local, nature-integrated vibe. We’re looking for a logo that communicates protection, trust, and peace of mind — all while reflecting the strength and natural beauty of the region.⸻What We’re Looking For:•A primary logo with the full name: NW Home Defense•A secondary or simplified version (e.g., initials, emblem, or icon)•Clean, modern, bold — but warm and rooted in trust &amp; natureThe design should work well on:•Websites•Yard signs•Uniforms•Mobile apps•Vehicle decals⸻ Brand Color PalettePrimary Colors1.Deep...</t>
+          <t>Property Lead Generation and Facebook Ads SpecialistWe're looking for a skilled freelancer to help us generate leads for our property business in Bangkok. The ideal candidate will have experience in creating and managing Facebook Ads campaigns, setting up lead forms, and optimizing ad performance.Create and manage Facebook Ads campaigns to generate leads for our rental propertiesSet up and optimize lead forms to capture user detailsMonitor and report on ad performance, including cost per lead and conversion rateOptimize ad targeting, ad creative, and budget allocation to improve lead quality and quantityExperience with Facebook Ads and lead generationStrong understanding of ad targeting, ad creative, and budget allocationAbility to monitor and optimize ad performanceExcellent...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1343,17 +1343,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/jobs//contest/logo-design-project-nw-home-defense-2594523</t>
+          <t>https://www.freelancer.com/projects/facebook-ads/expert-property-lead-generation-facebook</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1362,12 +1362,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bug Fixing for VoiceToNotes.ai Mobile &amp; Web Apps</t>
+          <t>Textile Fabric Print Design -- 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>I need a skilled developer to help fix some bugs in my app, VoiceToNotes.ai. It's a voice-to-text application that works across mobile and web platforms. The app is already live, but there are a few issues that need to be resolved to improve performance and stability.Tasks Include (but not limited to):Fixing known crashes or unexpected behavior in the mobile app (iOS/Android)Correcting UI/UX glitchesEnsuring accurate voice transcriptionFixing syncing issues between mobile and web appsImproving performance and responsivenessRequirements:Experience with Flutter / React Native / Swift / Kotlin (depending on the app stack)Familiarity with Firebase / AWS backend (if applicable)Debugging and troubleshooting experienceAbility to test across multiple devicesI’ll ...</t>
+          <t>I need a textile designer to create fabric print designs specifically for t-shirts. The focus is on developing unique and appealing designs that can be used for t-shirt prints. I am open to various styles, including geometric patterns, floral patterns, and abstract designs. However, I require assistance in developing a specific theme or concept for these designs.Key Requirements:- Create fabric print designs for t-shirts.- Explore various styles: geometric, floral, and abstract.- Assist in developing a theme or concept for the designs.Ideal Skills and Experience:- Experience in textile design, particularly in fabric print design.- Strong creativity and ability to generate unique design concepts.- Proficiency in creating designs suitable for t-shirt printing.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/flutter/bug-fixing-for-voicetonotes-mobile</t>
+          <t>https://www.freelancer.com/projects/fabric-printing-design/textile-fabric-print-design</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1396,12 +1396,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Shopify Store Development</t>
+          <t>Generate OpenCore EFI for AMD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>I need a Shopify store that will both showcase my brand and sell our physical products.  Key Requirements:  - Must focus on highlighting product details  - Should be visually appealing and user-friendly  - Should have a seamless checkout process  Ideal Skills:  - Experience in Shopify development  - Strong design skills  - Knowledge of e-commerce best practices  - Ability to integrate customer testimonials  Please provide examples of previous work.</t>
+          <t>Of course. Here is the updated version with your specific hardware and end-goal integrated into the post.Expert OpenCore Developer for Custom AMD Hackintosh BuildI'm looking for a highly experienced OpenCore developer to create a custom EFI for my desktop, built around a Ryzen 9 CPU and a 2TB NVMe SSD on a Gigabyte motherboard. The end result must be a perfectly stable system that reliably boots the latest macOS Sonoma directly from the NVMe drive for daily use.This is not a beginner project. Please apply only if you have deep, hands-on experience with the complexities of AMD-based systems.Key Responsibilities &amp; Technical Requirements:EFI from Scratch: You will build a new  using the latest stable OpenCore release. No downloaded or modified pre-built EFIs from ot...</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/website-design/shopify-store-development-39624154</t>
+          <t>https://www.freelancer.com/jobs//contest/generate-opencore-efi-for-amd-2570565</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1430,12 +1430,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hindi Script Writer Needed for Defense-Focused YouTube Channel</t>
+          <t>Excel Financial Data Analysis</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>We're hiring a talented script writer for our Hindi YouTube channel that creates high-quality, engaging, and fact-based content on warfare technology, global defence systems, and military innovations.If you are someone who’s genuinely interested in defense, missiles, fighter jets, military tech, and war strategies – this is for you.Responsibilities:Write full-length YouTube video scripts (8–12 minutes) in Hinglish (spoken Hindi)Start each script with a modern and strong hooking line (0:00–0:30 seconds)Explain complex military and war-tech topics in a clear, engaging, and storytelling formatEnsure accuracy, double-verification of facts, and real-world examplesSuggest visuals or on-screen text (optional but preferred) Requirements:Must be fluent in...</t>
+          <t>I need assistance with data analysis in Microsoft Excel, specifically using pivot tables and charts. The data is financial in nature, and I'm particularly interested in analyzing revenue and expenses.Key Requirements:- Create and manage pivot tables- Design insightful charts for data visualization- Analyze financial data with accuracy- Present data clearly and effectivelyIdeal Skills and Experience:- Proficiency in Microsoft Excel- Experience with financial data analysis- Strong analytical skills- Attention to detail- Ability to meet deadlines</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/creative-writing/hindi-script-writer-needed-for</t>
+          <t>https://www.freelancer.com/projects/data-analysis/excel-financial-data-analysis</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1464,12 +1464,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SEO Strategy for Traffic Increase</t>
+          <t>Excel Financial Data Analysis -- 2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>I'm seeking an experienced SEO specialist to help increase the traffic to my website. The primary goal of this project is to implement effective SEO strategies that will drive more visitors to the site.Key Requirements:- Develop and execute a comprehensive SEO plan focused on increasing website traffic- Conduct keyword research and optimize existing content- Analyze website performance and identify areas for improvement- Implement on-page and off-page SEO techniques- Monitor and report on traffic growth and SEO performanceIdeal Skills and Experience:- Proven track record in SEO with a focus on traffic generation- Strong understanding of search engine algorithms and ranking factors- Experience with SEO tools such as Google Analytics, SEMrush, or Ahrefs- Ability to analyze ...</t>
+          <t>I need assistance with data analysis in Microsoft Excel, specifically using pivot tables and charts. The data is financial in nature, and I'm particularly interested in analyzing revenue and expenses.Key Requirements:- Create and manage pivot tables- Design insightful charts for data visualization- Analyze financial data with accuracy- Present data clearly and effectivelyIdeal Skills and Experience:- Proficiency in Microsoft Excel- Experience with financial data analysis- Strong analytical skills- Attention to detail- Ability to meet deadlines</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1479,17 +1479,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/google-analytics/seo-strategy-for-traffic-increase</t>
+          <t>https://www.freelancer.com/projects/data-analysis/excel-financial-data-analysis-39630170</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1498,12 +1498,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Edit Video in Filmora</t>
+          <t>تصميم شعار كلاسيكي</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>i want to make video for youtube. i will provide all the data and screen recordings I want to someone who can represent information in best wat in filmora</t>
+          <t>أحتاج مصمم جرافيك موهوب لإنشاء شعارات.  المتطلبات:  - تصميم شعارات بتصميم كلاسيكي  - مهارات قوية في أدوات التصميم مثل Adobe Illustrator وPhotoshop  - اهتمام كبير بالتفاصيل  - القدرة على العمل ضمن فريق أو بشكل مستقل  - محفظة تظهر خبرة في الأنماط الكلاسيكية  المتقدمون المثاليون يجب أن يكون لديهم:  - خبرة مثبتة في تصميم الشعارات  - إبداع ومهارات حل مشاكل  - مهارات تواصل ممتازة  يرجى تقديم عينات من الأعمال السابقة.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/youtube/edit-video-filmora</t>
+          <t>https://www.freelancer.com/projects/graphic-design/project-39630165</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-07-20 10:42:46</t>
+          <t>2025-07-22 11:21:59</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:54</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:54</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:54</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>E Learning &amp; Membership Operations Specialist</t>
+          <t>Intelligence &amp; Research Analyst</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1633,17 +1633,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Entry Level</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-e-learning-membership-operations-specialist-jtine-co-1093621</t>
+          <t>https://remoteok.com/remote-jobs/remote-intelligence-amp-research-analyst-clipbook-1093688</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1652,7 +1652,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Executive Assistant &amp; Office Manager</t>
+          <t>Government Relations Officer</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1663,17 +1663,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-executive-assistant-amp-office-manager-sword-health-1093673</t>
+          <t>https://remoteok.com/remote-jobs/remote-government-relations-officer-injective-labs-1093686</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Account Executive Retail</t>
+          <t>Software Engineer II Full Stack</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1698,12 +1698,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-account-executive-retail-quantum-metric-1093672</t>
+          <t>https://remoteok.com/remote-jobs/remote-software-engineer-ii-full-stack-greenlight-financial-technology-1093682</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senior Product Designer</t>
+          <t>UI UX Product Designer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1723,17 +1723,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-senior-product-designer-alltrails-1093671</t>
+          <t>https://remoteok.com/remote-jobs/remote-ui-ux-product-designer-crewvision-1093681</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1742,7 +1742,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Data Collection Participant Photo Submission Task</t>
+          <t>Membership Site Support Specialist</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1758,12 +1758,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-data-collection-participant-photo-submission-task-crowdgen-by-appen-1093670</t>
+          <t>https://remoteok.com/remote-jobs/remote-membership-site-support-specialist-jtine-co-1093621</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Virtual Assistant $25 Hourly</t>
+          <t>Admin and Support Specialist With Love for Writing</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Beginner Web Development</t>
+          <t>Writing &amp; Content</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-virtual-assistant-25-hourly-brookview-lawncare-1093358</t>
+          <t>https://remoteok.com/remote-jobs/remote-admin-and-support-specialist-with-love-for-writing-interaction-design-foundation-1093680</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aprio PH FP&amp;A Analyst</t>
+          <t>Crypto Compliance Project Manager</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1813,17 +1813,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-aprio-ph-fpampa-analyst-aprio-1093669</t>
+          <t>https://remoteok.com/remote-jobs/remote-crypto-compliance-project-manager-dlocal-1093679</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Senior Full Stack Engineer</t>
+          <t>Head of CRM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1843,17 +1843,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-senior-full-stack-engineer-amk-solutions-1093412</t>
+          <t>https://remoteok.com/remote-jobs/remote-head-of-crm-oanda-europe-ltd-1093678</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Backend Developer @ lobstr.io Python Scraping Celery</t>
+          <t>Content Producer Technical Content Engineer Junior Dev</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1873,17 +1873,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Web Development Internship</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-backend-developer-lobstr-io-python-scraping-celery-lobstr-io-1093607</t>
+          <t>https://remoteok.com/remote-jobs/remote-content-producer-technical-content-engineer-junior-dev-private-ki-1093677</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1892,7 +1892,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sales Development Representative</t>
+          <t>Executive Assistant &amp; Office Manager</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1903,17 +1903,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-sales-development-representative-heard-1093666</t>
+          <t>https://remoteok.com/remote-jobs/remote-executive-assistant-amp-office-manager-sword-health-1093673</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1922,7 +1922,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Underwriter</t>
+          <t>Senior Product Designer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1933,17 +1933,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Writing &amp; Content</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-underwriter-gravie-1093665</t>
+          <t>https://remoteok.com/remote-jobs/remote-senior-product-designer-alltrails-1093671</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
+          <t>2025-07-22 11:23:02</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1952,13 +1952,13 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Full Stack Engineer</t>
+          <t>Cloud Engineer</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Remote OK</t>
+          <t>G21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1968,21 +1968,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-full-stack-engineer-sensor-tower-1093661</t>
+          <t>https://jobs.ashbyhq.com/g2i/baed670e-4d57-4d2d-803d-7bb5843038ae</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-07-20 10:43:55</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+          <t>2025-07-22 11:23:25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cloud Engineer</t>
+          <t>FullStack (Ruby + React) Developer</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1993,17 +2001,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/baed670e-4d57-4d2d-803d-7bb5843038ae</t>
+          <t>https://jobs.ashbyhq.com/g2i/5a9ffc9d-1fbf-4f94-9c49-372ad689d93a</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:19</t>
+          <t>2025-07-22 11:23:25</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2020,7 +2028,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FullStack (Ruby + React) Developer</t>
+          <t>Fullstack Software Engineer - Tech Lead</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2031,24 +2039,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/5a9ffc9d-1fbf-4f94-9c49-372ad689d93a</t>
+          <t>https://jobs.ashbyhq.com/g2i/ffb48a7b-f62e-452d-b0f6-9bd4121f74a0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:19</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+          <t>2025-07-22 11:23:25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>Full time</t>
@@ -2058,7 +2062,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fullstack Software Engineer - Tech Lead</t>
+          <t>Senior Backend Engineer - TypeScript</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2074,15 +2078,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/ffb48a7b-f62e-452d-b0f6-9bd4121f74a0</t>
+          <t>https://jobs.ashbyhq.com/g2i/cbabb1fa-99aa-4ccb-ad79-f46f5d98800d</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:19</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>2025-07-22 11:23:25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
           <t>Full time</t>
@@ -2092,7 +2100,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer - TypeScript</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2108,19 +2116,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/cbabb1fa-99aa-4ccb-ad79-f46f5d98800d</t>
+          <t>https://jobs.ashbyhq.com/g2i/55ea0251-b1ab-46da-a847-368bec093ab3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:19</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+          <t>2025-07-22 11:23:25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>Full time</t>
@@ -2130,7 +2134,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Software Developer .NET</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2141,20 +2145,24 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/55ea0251-b1ab-46da-a847-368bec093ab3</t>
+          <t>https://jobs.ashbyhq.com/g2i/697db620-6576-4e63-b0d9-3f459c089282</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:19</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>2025-07-22 11:23:25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>Full time</t>
@@ -2164,45 +2172,37 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Software Developer .NET</t>
+          <t>Senior Django Developer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>G21</t>
+          <t>Remotive</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/697db620-6576-4e63-b0d9-3f459c089282</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-django-developer-1359476</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:19</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Full time</t>
-        </is>
-      </c>
+          <t>2025-07-22 11:23:45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Senior Django Developer</t>
+          <t>Senior Next.js Developer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-django-developer-1359476</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-next-js-developer-1606658</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2232,7 +2232,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Senior Next.js Developer</t>
+          <t>Frontend Engineer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2243,17 +2243,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-next-js-developer-1606658</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2036982</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2262,7 +2262,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Frontend Engineer</t>
+          <t>Back-End Web Developer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2036982</t>
+          <t>https://remotive.com/remote-jobs/software-dev/back-end-web-developer-2036955</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2292,7 +2292,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Back-End Web Developer</t>
+          <t>Freelance Web Developer</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/back-end-web-developer-2036955</t>
+          <t>https://remotive.com/remote-jobs/software-dev/freelance-web-developer-2036890</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2322,7 +2322,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Freelance Web Developer</t>
+          <t>AEM Vue.js Developer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/freelance-web-developer-2036890</t>
+          <t>https://remotive.com/remote-jobs/software-dev/aem-vue-js-developer-2036872</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2352,7 +2352,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AEM Vue.js Developer</t>
+          <t>eCommerce Tool Developer - Node.js/Next.js</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2368,12 +2368,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/aem-vue-js-developer-2036872</t>
+          <t>https://remotive.com/remote-jobs/software-dev/ecommerce-tool-developer-node-js-next-js-2036414</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2382,7 +2382,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>eCommerce Tool Developer - Node.js/Next.js</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Beginner Web Development</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/ecommerce-tool-developer-node-js-next-js-2036414</t>
+          <t>https://remotive.com/remote-jobs/software-dev/python-developer-2035478</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2412,7 +2412,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Senior Front End Engineer</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2423,17 +2423,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/python-developer-2035478</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-engineer-2035492</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Senior Front End Engineer</t>
+          <t>Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2453,17 +2453,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-engineer-2035492</t>
+          <t>https://remotive.com/remote-jobs/software-dev/full-stack-software-engineer-2035493</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2472,7 +2472,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineer</t>
+          <t>WP Web Developer</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2483,17 +2483,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/full-stack-software-engineer-2035493</t>
+          <t>https://remotive.com/remote-jobs/software-dev/wp-web-developer-2035498</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2502,7 +2502,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WP Web Developer</t>
+          <t>Frontend Engineer</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/wp-web-developer-2035498</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2035501</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2532,7 +2532,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frontend Engineer</t>
+          <t>Senior .NET Web Developer</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2543,17 +2543,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2035501</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-net-web-developer-2035503</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2562,7 +2562,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Senior .NET Web Developer</t>
+          <t>Frontend Software Engineer</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2573,17 +2573,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-net-web-developer-2035503</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-software-engineer-2035601</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2592,7 +2592,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Frontend Software Engineer</t>
+          <t>PHP Web Developer</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/frontend-software-engineer-2035601</t>
+          <t>https://remotive.com/remote-jobs/software-dev/php-web-developer-2035554</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2622,7 +2622,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PHP Web Developer</t>
+          <t>(Senior) Web Developer Frontend/Backend</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2633,17 +2633,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/php-web-developer-2035554</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-web-developer-frontend-backend-2035569</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>(Senior) Web Developer Frontend/Backend</t>
+          <t>React Developer</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-web-developer-frontend-backend-2035569</t>
+          <t>https://remotive.com/remote-jobs/software-dev/react-developer-2035580</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2682,7 +2682,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>React Developer</t>
+          <t>Senior Front End Developer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2693,17 +2693,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/react-developer-2035580</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-developer-2035595</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Senior Front End Developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2723,17 +2723,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-developer-2035595</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2035378</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2758,12 +2758,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2035378</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2034824</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2772,7 +2772,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2034824</t>
+          <t>https://remotive.com/remote-jobs/software-dev/full-stack-developer-2035363</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Team Lead / Software Developer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2813,17 +2813,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/full-stack-developer-2035363</t>
+          <t>https://remotive.com/remote-jobs/software-dev/team-lead-software-developer-2035242</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Team Lead / Software Developer</t>
+          <t>Software Engineer II, Mobile</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2843,17 +2843,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Mobile Development</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/team-lead-software-developer-2035242</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-ii-mobile-2035253</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2862,7 +2862,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Software Engineer II, Mobile</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2873,17 +2873,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mobile Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-ii-mobile-2035253</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-2035254</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2892,7 +2892,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2903,17 +2903,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-2035254</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-2035270</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2922,7 +2922,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Senior Independent Software Developer</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2933,17 +2933,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-2035270</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-independent-software-developer-1919265</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2952,7 +2952,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Senior Independent Software Developer</t>
+          <t>Senior Django Developer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2968,12 +2968,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-independent-software-developer-1919265</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-django-developer-1359476</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3012,7 +3012,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Senior Django Developer</t>
+          <t>Senior Software Engineer C++</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3028,12 +3028,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-django-developer-1359476</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-c-1996157</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3042,7 +3042,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Senior Software Engineer C++</t>
+          <t>Software Engineer - Customer Projects - Americas</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3053,17 +3053,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-c-1996157</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-customer-projects-americas-2032608</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -3072,7 +3072,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Software Engineer - Customer Projects - Americas</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3083,51 +3083,21 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-customer-projects-americas-2032608</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-data-scientist-2017883</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-07-20 10:44:45</t>
+          <t>2025-07-22 11:23:45</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Remotive</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-data-scientist-2017883</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-07-20 10:44:45</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/job_listings.xlsx
+++ b/job_listings.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Website Content Creation for Professional Woman</t>
+          <t>ProCreate Designer for T-Shirt Designs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I need engaging and professional website content for my personal brand. Essential tasks include:- Crafting compelling copy for Home, About Us, and Product/Service pages.- Demonstrating my expertise and value in the content.Ideal Skills &amp; Experience:- Proven experience in website content creation.- Ability to write in a professional yet engaging tone.- Strong understanding of personal branding.Please share relevant portfolio samples.</t>
+          <t>We’re White Kiwi, a streetwear brand focused on bold, culturally rich, and youth-driven designs — and we’re looking for a freelance designer to join us on upcoming drops!What We’re Looking For:- Proficiency in Procreate (must-have)- Experience designing for t-shirts, apparel, and streetwear- Understanding of puff print techniques and how designs translate into screen printing- Ability to provide production-ready cut-offs- Strong sense of design balance, placement, and concept development- Ability to build designs around a story, theme, or cultural referenceHow to Apply:If this sounds like you, we’d love to see your work!Please send your portfolio and rates to usWe’re excited to build something creatively wild — let’s collaborate...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/articles/website-content-creation-for</t>
+          <t>https://www.freelancer.com/projects/procreate/procreate-designer-for-shirt-designs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,12 +512,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI Influencer Creation and Monetization</t>
+          <t>Application of Matrices in Real Life</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I'm seeking an expert to create, implement, and monetize an AI influencer on YouTube. The goal is to generate $40k per month.Requirements:- The AI influencer will focus on health and wellness educational tutorials.Ideal skills and experience:- Experience in AI content creation- Strong background in YouTube growth strategies- Expertise in health and wellness topics- Proven track record in monetizing digital contentPlease provide a detailed plan and relevant experience in your bid.</t>
+          <t>Project Title:“Application of Matrices in Real Life”--- Introduction:Mathematics is not just about numbers; it’s about logic, problem-solving, and practical application. Among all chapters, Matrices play a crucial role in both theoretical and practical aspects of life, especially in fields like computer graphics, economics, coding, and artificial intelligence.--- What is a Matrix?A Matrix is a rectangular arrangement of numbers in rows and columns. It is used to store data and solve systems of linear equations efficiently.Example:A = begin{bmatrix} 1 &amp; 2  3 &amp; 4 end{bmatrix}--- Real Life Applications of Matrices:1. Computer Graphics:Matrices are used to rotate, scale, and transform 2D and 3D graphics in video games and animations....</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,17 +527,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/ai-content-creation/influencer-creation-monetization</t>
+          <t>https://www.freelancer.com/projects/mathematics/application-matrices-real-life</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,12 +546,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Retail Sales Data Analysis Expert Needed</t>
+          <t>Hair Retouching Specialist</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I am seeking a detail-oriented Junior Data Analyst with over 1.10 years of hands-on experience in SQL, Python, Power BI, Tableau, and Excel, complemented by 3 years of expertise in supply chain analytics. The primary goal of this project is to boost sales and revenue within the retail industry by leveraging sales data.Key Requirements:- Analyze retail sales data to identify trends and opportunities for revenue growth- Build and optimize ETL pipelines for efficient data processing- Create insightful dashboards using Power BI or Tableau to visualize key performance indicators and sales metrics- Deliver data-driven recommendations to support business decision-makingIdeal Skills and Experience:- Proficiency in SQL, including Joins, CTE, Window Functions, Aggregates, and Optimization-...</t>
+          <t>I need a skilled photo editor to retouch an image. Key requirements include:- Modifying hair sway dynamics-adjust the bangsRemove some of the bangs if need but just want to have a even flow. Like thisIdeal skills and experience:- Expertise in professional photo editing software- Experience in hair adjustments and retouching</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/big-data-sales/retail-sales-data-analysis-expert</t>
+          <t>https://www.freelancer.com/projects/image-processing/hair-retouching-specialist</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,12 +580,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spark Migration to Kubernetes Cluster</t>
+          <t>Startup Investment CRM with Email Integration</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I need assistance migrating from Spark client mode to Spark cluster mode on Kubernetes for my office project, and upgrading to Spark 4.0. Currently, I'm using Spark 3.4.2, and my Kubernetes cluster is partially set up but requires further configuration. The primary focus of this migration is on ETL pipelines.Key Requirements:- Migrate Spark applications from client mode to cluster mode on Kubernetes- Upgrade Spark version from 3.x to 4.0- Complete the configuration of the existing Kubernetes cluster- Ensure seamless migration of ETL pipelinesIdeal Skills and Experience:- Strong expertise in Apache Spark, particularly in upgrading and migrating versions- Experience with Kubernetes, including setting up and configuring clusters- Proficiency in managing and migrating ETL pipel...</t>
+          <t>I'm looking to develop a Startup Investment CRM using Google App Script. The CRM should allow me to upload investor names and emails, send bulk emails, and track interactions seamlessly. I need the system to notify me when emails are opened and to display sent and replied emails within the CRM interface.Key Requirements:- Develop the CRM using Google App Script- Upload and manage investor names and emails- Send bulk emails through Gmail- Receive notifications when emails are opened- Track investor interactions and manage investment opportunitiesIdeal Skills and Experience:- Proficiency in Google App Script and Gmail API- Experience in CRM development and email integration- Strong understanding of investment management processes- Ability to create a user-friendly interface...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,17 +595,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/apache-spark/spark-migration-kubernetes-cluster</t>
+          <t>https://www.freelancer.com/projects/app-development/startup-investment-crm-with-email</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,12 +614,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romantic Video Editor Needed</t>
+          <t>Engaging Content Creator Needed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I'm looking for a talented video editor to create two 5-minute videos for a birthday and an anniversary celebration. The videos should be romantic and sentimental, capturing the essence of these special occasions. Key Requirements:- Edit two 5-minute videos with a romantic and sentimental style- Incorporate personalized voice messages or songs as the music background- Apply color grading to enhance the visual appeal- Add appropriate titles to highlight key momentsIdeal Skills and Experience:- Proficient in video editing software- Experience in creating romantic and sentimental videos- Ability to work with personalized audio content- Skilled in color grading techniques to enhance video qualityIf you have a passion for creating heartfelt videos and can bring these special ...</t>
+          <t>I'm looking for a talented content creator who can write engaging articles and blog posts for the general public. Key Requirements:- Create informative and engaging articles/blog posts- Topics should cater to the general public's interests- Adhere to deadlines and maintain high-quality standardsIdeal Skills:- Excellent writing and research skills- Ability to simplify complex topics- Experience in content creation for various platformsIf you have a passion for writing and can connect with a broad audience, I'd love to hear from you!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/color-grading/romantic-video-editor-needed</t>
+          <t>https://www.freelancer.com/projects/ai-content-writing/engaging-content-creator-needed</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,12 +648,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Looking for Developer with .NET Core, MAUI, Blockchain &amp; Crypto Expertise</t>
+          <t>copy prediction area</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Description:We are seeking a skilled and reliable developer (or team) with expertise in:.NET Core (for backend/API development)MAUI (for cross-platform mobile/desktop apps)Blockchain &amp; Crypto technologies (smart contracts, wallets, DApps, integration)Project Overview:Develop and maintain a modern, secure application that will include:Cross-platform client built using .NET MAUIBackend services and APIs in .NET CoreIntegration with blockchain (e.g., smart contracts, transactions, crypto wallets)The exact scope will be discussed, but it involves building real-world crypto features on top of solid Microsoft stack foundations.Ideal Candidate:Strong experience with .NET Core and C#Hands-on experience with .NET MAUI (or )Solid knowledge of blockchain technologies (e.g., Ethe...</t>
+          <t>I want to copy the prediction area from the PancakeSawp platform, and I want it to be developed on the Solana network. I want the prediction to be made using the Bitcoin cryptocurrency. And I want my own token to be used to place the bets.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/dot-net-core/looking-for-developer-with-net</t>
+          <t>https://www.freelancer.com/projects/solana/copy-prediction-area</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,12 +682,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Develop TradingView Alert Automation App</t>
+          <t>Playful Business Logo Design</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I'm seeking an experienced Python or C programmer to create a desktop application that automates order execution using TradingView alerts. The application should integrate with Zerodha and Dhan broker APIs and be compatible with Windows operating systems.Key Requirements:- Develop a desktop application for Windows- Integrate with Zerodha and Dhan broker APIs- Automate order execution based on TradingView alerts- Include features for backtesting, real-time order execution, and custom indicatorsIdeal Skills and Experience:- Proficiency in Python or C programming- Experience with broker API integration, especially Zerodha and Dhan- Strong understanding of TradingView alerts and order execution automation- Familiarity with developing Windows-compatible desktop applications- A...</t>
+          <t>I am starting a business that sells toys, costumes for kids and adults, and festive-related packaging and items. I need a creative freelancer to design a fun and attractive logo that captures the essence of my business.Key Requirements:- The logo should have a playful style to appeal to both children and adults.- I have specific colors in mind for the logo, which I will share with the selected freelancer.- The design should incorporate elements or symbols related to toys and festive items to reflect the products we offer.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,17 +697,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/api-integration/develop-tradingview-alert-automation-app</t>
+          <t>https://www.freelancer.com/projects/creative-design/playful-business-logo-design</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,12 +716,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Equine Nutrition Magazine Design Needed</t>
+          <t>PDF to Text Data Entry</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I am seeking a talented designer to create a captivating magazine focused on equine nutrition for our customers. The magazine should be informative, visually appealing, and engaging, offering a comprehensive look into various aspects of equine nutrition.Key Requirements:- Design an A4, 20 page magazine centered on equine nutrition.- Design a front cover- Design a table of contents- Include a mix of content: articles and research, dietary tips and guidelines, case studies and success stories, and product sale sections.- Incorporate high-quality images to enhance the visual appeal.- Ensure the layout is clean, professional, and easy to navigate.Ideal Skills and Experience:- Experience in magazine design and layout.- Strong graphic design skills with a focus on creating visually a...</t>
+          <t>I'm looking for a detail-oriented freelancer to assist with a data entry project involving the transfer of information from PDF files to a simple text format. The task requires careful copy-pasting between documents while ensuring accuracy and consistency.Key Requirements:- Copy-paste data from PDF files to a text document- Maintain accuracy and attention to detail- Organize data in a simple text format without preserving original formattingIdeal Skills and Experience:- Proficiency in handling PDF files and text documents- Strong attention to detail and accuracy- Experience with data entry tasks and document managementIf you have the skills to efficiently manage this task, I look forward to your application!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/magazine-design/equine-nutrition-magazine-design-needed</t>
+          <t>https://www.freelancer.com/projects/copy-typing/pdf-text-data-entry-39633946</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,12 +750,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mechanical Design and Vibration Analysis</t>
+          <t>3D Model Threaded Hole Modification</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I would like you to design the turbine drivetrain in detail, including a technical drawing with dimensions and supporting calculations for the shaft and bearings. I also want  work involving the analyses of a system’s vibration by identifying potential vibration sources, estimating the critical speed using Rayleigh-Ritz and Dunkerley methods, and calculating torsional and longitudinal vibration frequencies. You must also assess the impact of vibration and suggest further analysis to improve understanding.</t>
+          <t>I need a prototype 3D model modified to include functional threaded holes that will print accurately. The model is of a multi pipe coupling and should be suitable for ABS plastic printing.Requirements:- Modify existing 3D model to add threaded holes- Ensure holes are functional and print correctly- Experience with ABS plastic and 3D printingIdeal Skills and Experience:- Proficiency in 3D modelling software- Knowledge of ABS printing characteristics or perhaps other materials if needed.- Attention to detail and precision in modificationsI am new to cad and am struggling with inventor not actually creating threads, just depicting the threads on the image. Its literally two plates with multiple holes that are threaded. spacing is key so that the john guest fitting screw in. And tw...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Design &amp; Creative</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/mechanical-design/mechanical-design-vibration-analysis</t>
+          <t>https://www.freelancer.com/projects/3d-printing/model-threaded-hole-modification</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,12 +784,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tech Pack for Dresses</t>
+          <t>Persuasive Health Speech</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I'm seeking a skilled tech pack designer to create comprehensive tech packs for a range of dresses.Requirements:- Detailed measurements- Fabric and trim details- Construction notes- Ability to work from specific styles I provideIdeal Skills:- Experience in designing tech packs for dresses- Strong knowledge of fabrics, trims, and construction techniques- Attention to detail and accuracy- Ability to interpret and execute from provided style referencesPlease include samples of previous work with your bids.</t>
+          <t>TO BE COMPLETLEY HUMAN WRITTEN NO AII'm seeking a highly compelling, 5 minute persuasive speech aimed at changing the opinions of the general public on my contention that 'Australia must introduce stringent regulations on practioners in the cosmetic industry to ensure no more paitents are hurt'. The speech must be engaging and thought-provoking, encouraging the audience to rethink their current beliefs and consider my POV as correct.I have uploaded a rough plan w/ notes for the speech, as well as the rubric(requirements) to complete it to the highest level. There is also an attachment of some examples of speeches to ensure what level this should be at.Key Requirements:- Use variety of evidence from researching different sources(Using sources from my planning sources, i...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -804,12 +804,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/3d-modelling/tech-pack-for-dresses</t>
+          <t>https://www.freelancer.com/projects/speech-writing/persuasive-health-speech</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,12 +818,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YouTube Video Editing Needed</t>
+          <t>We are trying to connect the Oblio.eu API to n8n (cloud) to generate invoices automatically from our workflow. -- 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I need professional video editing services for my YouTube channel (@BrianScott1111). The videos will be 30 minutes to 1 hour long and will focus on meditations, activations, and metaphysical discussions. I have access to most stock footage and AI video options. Looking to edit 3 to 8 videos. Price is negotiable based on quality.Key Requirements:- Edit videos to maintain viewer engagement for 30 minutes to 1 hour.- Incorporate elements suitable for meditation and metaphysical content.- Ensure high-quality audio and visual synchronization.Ideal Skills and Experience:- Experience in editing YouTube videos, particularly in the meditation or metaphysical niche.- Proficiency in video editing software.- Ability to enhance video content with suitable effects and transitions.</t>
+          <t>We are trying to connect the  API to n8n (cloud) to generate invoices automatically from our workflow.The current error we get is:getaddrinfo ENOTFOUND orThe connection cannot be established, this usually occurs due to an incorrect host (domain) valueWe already have:Oblio API keyJSON payload working in PostmanAuth header: Bearer &lt;token&gt;n8n Cloud project with a configured HTTP Request nodeWe need you to:Troubleshoot and fix the HTTP request node in n8n.Ensure the workflow successfully creates an invoice using Oblio API.Suggest alternatives if DNS issues persist (e.g., webhook proxy, fallback platform, or self-hosted n8n).Budget:$20 fixed priceMore if the solution involves a workaround like webhook tunneling or migration.Timeframe:ASAP  Today if possible</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -833,17 +833,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/youtube/youtube-video-editing-needed</t>
+          <t>https://www.freelancer.com/projects/php/are-trying-connect-the-oblio</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,12 +852,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WordPress AdForest Classified Site Development</t>
+          <t>Office Assistant Needed in Pune</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>I need an experienced WordPress developer to design a classified website using the AdForest theme. The site will primarily facilitate buying and selling items, with job listings in technology, healthcare, and finance sectors Real Estate leads etc... Demoi Theme installedKey Requirements:- Implement advanced search filters- Create a user rating system- Integrate payment gatewaysIdeal Skills and Experience:- Proficiency in WordPress and AdForest theme- Experience with custom functionalities- Strong knowledge of payment gateway integration- Familiarity with building user rating systems</t>
+          <t>I need an office assistant based in Pune to help with scheduling appointments and providing customer support. Key Requirements:- Proficiency in English and Marathi- Experience with email management tools is a must- Organizational skills and a customer-friendly attitudeCandidate should be fluent in Marathi and preferably female</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/wordpress-design/wordpress-adforest-classified-site</t>
+          <t>https://www.freelancer.com/projects/administrative-support/office-assistant-needed-pune</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,12 +886,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Manager OF</t>
+          <t>Architectural Design for Serviced Apartment Building</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I'm looking for a manager who can manage the account, create the sales strategy, and speak with clients.</t>
+          <t>I’m looking for someone with solid experience and a good reputation in architectural design that follows the **Saudi Building Code (SBC)**. I have a project in **Buraidah, Saudi Arabia**, and I’d love to work with someone who understands local design standards and requirements.**Project at a glance:* Type: Serviced apartment building* Location: Buraidah, Al-Qassim, Saudi Arabia* Land area: 2,500 m² (60m frontage × 42m depth)* Floors: 6* Units: (Studios, 1-bedroom 70%), and (2-bedroom apartments 30%).**What I need:* Full architectural design (SBC-compliant)* Includes architectural, structural, electrical, and mechanical drawings* Final 3D renderings and façade design* Files in DWG and PDF formats, ready for submission on the **“Balady”...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/sales/manager-39630191</t>
+          <t>https://www.freelancer.com/projects/rendering/architectural-design-for-serviced</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,12 +920,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Arch with Weapons</t>
+          <t>Gym Information Website Development</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3D Design of Wall. 3D Wall on Two Sides (same design on both sides). 3D Weapons on One Side (smooth back). STL file for 3D printing in resin.</t>
+          <t>I'm looking for a skilled web developer to create an informational website for our gym. The website should primarily serve to provide information to our existing members and attract new ones.Essential Pages:- Home- About Us- Class Schedules- Membership Details- Contact Us- How to Find UsIdeal skills and experience:- Proficiency in website design and development- Experience with user-friendly navigation and layout- Ability to create visually appealing and informative content- Familiarity with SEO best practices to help attract new membersI have the design and layout I have created in Adobe Illustrator.  Will provide all text, Pics, Logos, icons etc.Just need to get it in a working format, so Simple enough for the right personPlease provide samples of previous work an...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Design &amp; Creative</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/3d-modelling/arch-with-weapons</t>
+          <t>https://www.freelancer.com/projects/web-design/gym-information-website-development</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,12 +954,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Social Media App UI/UX Design</t>
+          <t>Discreet Luxury Replica Online Store</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>I'm looking for an experienced UI/UX designer to create a modern, clean, and user-friendly interface for a social media app. The design should be tailored to my brand and user needs.Key requirements include:- Mobile-first, responsive design- Built using Figma with clear structure and reusable components- Key features: login/signup flows, personalized user profiles, feed layouts, interactive post designs (like, comment, share), stories, explore tabs, and chat screens- Consistent styling, smooth user flow, and intuitive navigation across all screensDeliverables:- High-fidelity mockups- Complete design system (colors, fonts, buttons, icons)- Clickable prototype (if needed)Ideal skills and experience:- Strong portfolio in social and content-sharing platforms- Expertise in F...</t>
+          <t>I'm seeking a skilled developer to create an online store using WooCommerce. The site will sell high-quality 1:1 replica luxury items, such as bags, watches, and shoes. Key Requirements:- **Security**: Password protection; hidden from Google- **Design**: Modern and trendy; premium high-end look- **Functionality**: Fast, secure; mobile and desktop compatible- **Payments**: Accept cryptocurrencyIf you've completed similar projects, please share your portfolio.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -969,17 +969,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/ui-design/social-media-app-design</t>
+          <t>https://www.freelancer.com/projects/woocommerce/discreet-luxury-replica-online-store</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Crypto Trading Assistant Needed</t>
+          <t>Create Meta Business Product Catalog</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I'm seeking a Crypto Swap Trading Assistant to help with arbitrage trading. Training will be provided, making this ideal for beginners.Key Responsibilities:- Monitoring market conditionsIdeal Skills and Experience:- Interest in cryptocurrency- Willingness to learn- Analytical mindsetLooking forward to your bids!</t>
+          <t>I'm looking for assistance in creating a product catalog using Meta Business Suite for WhatsApp and Facebook. The catalog will feature 11-50 physical goods, and I have all the necessary product images and descriptions ready for use.Key Requirements:- Set up and configure a product catalog in Meta Business Suite- Ensure seamless integration with both WhatsApp and Facebook platforms- Upload and organize 11-50 product images and descriptions- Optimize the catalog for easy navigation and user engagementIdeal Skills and Experience:- Experience with Meta Business Suite and catalog creation- Familiarity with Facebook and WhatsApp business integrations- Strong organizational skills for managing product information- Attention to detail to ensure accurate product representationI a...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/cryptocurrency/crypto-trading-assistant-needed-39630138</t>
+          <t>https://www.freelancer.com/projects/facebook-marketing/create-meta-business-product-catalog</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,12 +1022,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Modern Website Header and Banner Redesign (using Photoshop)</t>
+          <t>Senior Remote Sales Rep Needed for Signage Company</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I'm looking for a talented designer to create a modern website header and banner using Photoshop. The final output should be delivered as a PSD file. The design should incorporate a logo, navigation menu, and banner, all styled in a contemporary fashion.Key Requirements:- Design a modern website header and banner- Include the logo, navigation menu, and banner in the design- Use specific colors as per my preferences- Deliver the final design in a PSD file formatIdeal Skills and Experience:- Proficiency in Adobe Photoshop- Strong graphic design skills with a focus on modern aesthetics- Experience in designing website headers and banners- Ability to incorporate specified colors and elements effectivelyIf you have a keen eye for detail and a passion for modern design, I woul...</t>
+          <t>Now Hiring: Senior Remote Sales Representative – Signage Industry (U.S. Market)TFA Signs is a fast-growing U.S.-based signage company specializing in storefront, architectural, and large-format signage. We're currently expanding our remote team and looking for a Senior Sales Representative with proven signage industry experience to join our B2B sales division.Remote | Full-Time | U.S. Central Time HoursBase Salary: $1,100/month + High Commissions (Earn up to $4000/month)On-Target Earnings: $27,000–$38,000+/yearImportant: Signage Experience Is RequiredWe are only considering candidates with direct experience selling signage solutions. Please do not apply unless you’ve worked in the signage, large-format printing, or visual communications industry and have mana...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/adobe-photoshop/modern-website-header-banner-redesign</t>
+          <t>https://www.freelancer.com/projects/crm/senior-remote-sales-rep-needed</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,12 +1056,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Traditional Oil Painting from Digital Image</t>
+          <t>Cartoonish Animal Models for Roblox</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I am seeking a skilled traditional artist to reproduce a digital image as a hand-painted oil painting on canvas. This is for a physical artwork, not digital or printed. The painting must be done entirely by hand using oil paints on canvas, and I will provide the reference image directly. You must create exactly as the reference image.Work must be 100% handmade — no digital tools or printed canvasesRequirements:•Medium: Oil paint on canvas•Dimensions: 70 x 140 cm (horizontal layout)•Execution: 100% hand-painted — no digital art, no prints•Final Deliverable: The physical original painting•Shipping: Must ship the rolled canvas (not stretched) in a secure tube via DHL, FedEx, or similar reliable courier. International expedited shipping r...</t>
+          <t>I'm developing a Roblox game and need cartoonish animal characters (Imagine sonic characters). Additionally, I require animations for these models. Requirements:- Create engaging, cartoonish animal models- Provide animations for the modelsIdeal skills and experience:- Proficiency in Roblox Studio- Experience in 3D modeling and animation- Strong portfolio of cartoonish designs</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/oil-painting/traditional-oil-painting-from-digital</t>
+          <t>https://www.freelancer.com/projects/game-development/cartoonish-animal-models-for-roblox</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1090,12 +1090,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Electronics Pickup and Delivery</t>
+          <t>Optometrist Contact List for Marketing</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I need a reliable service to pick up and deliver company-owned computers and laptops. Requirements:- Pickup and delivery of electronics- Secure handling of items- Timely and safe transportationIdeal Skills and Experience:- Experience with transporting sensitive equipment- Good track record of punctuality- Ability to manage logistics efficientlyPlease provide your bids with relevant experience.</t>
+          <t>I am looking to compile a comprehensive contact list of optometrists located in Massachusetts for marketing purposes. The goal is to gather detailed information to support a multi-channel marketing campaign, including email, phone, and social media marketing.Key Requirements:- Collect LinkedIn profiles, cell phone numbers, and email addresses for optometrists in MA.- Ensure the data is accurate, up-to-date, and compliant with relevant privacy regulations.- Provide the data in a format that is easy to integrate into marketing tools and platforms.Ideal Skills and Experience:- Experience in data collection and lead generation, specifically in the healthcare sector.- Familiarity with data privacy laws and best practices for handling personal information.- Proficiency in using tools a...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/inventory-management/electronics-pickup-delivery</t>
+          <t>https://www.freelancer.com/projects/data-entry/optometrist-contact-list-for-marketing</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,12 +1124,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Social Media Manager Needed</t>
+          <t>Mortgage Funnel Expertise with GoHighLevel Automation</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I'm looking for an experienced social media manager to handle both Facebook and Instagram for my brand. Key Responsibilities:- Create engaging posts and updates- Develop captivating Stories and Reels- Assist with scheduling contentIdeal Skills and Experience:- Proven track record in social media management- Strong content creation skills- Familiarity with Facebook and Instagram algorithms- Excellent organizational and scheduling abilitiesPlease provide a portfolio with relevant experience.</t>
+          <t>GoHighLevel Expert – Mortgage Funnel + Lead Gen Automation (GHL Snapshot Setup)I’m looking for a GoHighLevel pro with direct experience building lead generation systems in the mortgage or home loan space — ideally someone who can go beyond basic setup and offer strategic input that actually drives conversions.I already have a GHL account and want everything built directly inside my subaccount (not yours). This is a plug-and-play project with room to grow if it’s a good fit.⸻What I Need:•Mortgage-focused lead generation funnel (landing page + form + thank you)•Automated SMS and email follow-up (initial sequence)•Pipeline/tag setup to track leads through stages•Calendar integration + booking system•FB/IG ad integration (...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/social-media-management/social-media-manager-needed-39630179</t>
+          <t>https://www.freelancer.com/projects/lead-generation/mortgage-funnel-expertise-with</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1158,12 +1158,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Casual SEO Blog Writer Needed at $0.8/Article FIXED</t>
+          <t>Website Customization on Dawn Theme</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>I'm looking for a talented writer to create engaging blog posts that will enhance our SEO efforts. The content should focus on health and fitness topics and be written in a casual tone to connect with our audience effectively.Key Requirements:- Write SEO-optimized blog posts on health and fitness- Use a casual and approachable writing style- Incorporate relevant industry trends, how-to guides, and case studies- Ensure content is engaging and informativeIdeal Skills and Experience:- Proven experience in writing SEO-friendly content- Strong understanding of health and fitness topics- Ability to write in a casual and engaging tone- Familiarity with keyword research and SEO best practicesI'm excited to see your creative approach to making our blog stand out!</t>
+          <t>I need an experienced developer to customize my website using the Dawn theme. The customization should match the design I provide.Requirements:- Adjust layout and structure- Modify typography and fonts- Color scheme changes as per my designIdeal Skills and Experience:- Proficient in Shopify and Dawn theme- Strong understanding of typography and layout design- Experience with design tools like Figma, Adobe XD, or Sketch- Ability to deliver high-quality work within a tight deadline of 1 dayPlease ensure the work is done within the budget of 1000 INR.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/blog-writing/casual-seo-blog-writer-needed</t>
+          <t>https://www.freelancer.com/projects/web-design/website-customization-dawn-theme</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1192,12 +1192,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist Needed</t>
+          <t>Book Marketing Specialist Needed</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>I'm seeking a skilled digital marketer to promote my website with the primary goal of generating leads and sales. Focus Areas:- Social Media Marketing- Search Engine Optimization (SEO)Target Audience: Both businesses and consumersIdeal Skills and Experience:- Proven track record in increasing sales and leads- Expertise in crafting and managing effective social media campaigns- Strong knowledge and experience in SEO techniques- Ability to analyze and report on performance metrics- Excellent communication and content creation skillsLooking forward to your proposals!</t>
+          <t>I'm seeking an experienced freelance marketer to help promote my book, "Cosmic Mind: A Gift of Love," on Amazon. The book encourages readers to explore their innate potential by addressing inner and societal 'clutter.” It champions independence, personal growth, and curiosity, challenging conventional education systems in the process.Key Requirements:- Promote book sales on Amazon- Focus on email marketing channels- Assist in building an email listIdeal Skills and Experience:- Proven track record in book marketing- Expertise in email marketing campaigns- Strong network for potential readers and buyers- Creative in content generation to engage and attract readersI'm looking for someone who can devise a strategic marketing plan, engage potential re...</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/content-marketing/digital-marketing-specialist-needed-39630174</t>
+          <t>https://www.freelancer.com/projects/book-marketing/book-marketing-specialist-needed</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1226,12 +1226,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Odoo eCommerce Customization &amp; Integration</t>
+          <t>Playful Youthful Logo Design</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I'm looking for an experienced Odoo developer to customize and integrate various aspects of my Odoo eCommerce platform. The project involves tailoring product pages, checkout processes, and user account pages to better suit our business needs. Additionally, I require integration with several third-party services to enhance functionality and streamline operations.Key Requirements:- Customize product pages with design/layout changes and functionality modifications.- Revamp the checkout process for improved user experience.- Update user account pages to align with business requirements.- Integrate with payment gateways, shipping providers, and marketing tools.Ideal Skills and Experience:- Proven experience with Odoo eCommerce customization and integration.- Strong understanding...</t>
+          <t>I need a logo designed that embodies a playful, youthful, and cute aesthetic.Requirements:- Logo style: Minimalist, Vintage, or Modern- Logo type: Combination of text and symbol- Primary color palette: Pastel colorsIdeal Skills and Experience:- Proven experience in creating playful and youthful logos- Strong portfolio showcasing combination logos- Proficiency in using color theory, especially with pastel palettes- Ability to deliver in multiple styles (minimalist, vintage, modern)Please provide samples of previous work and a brief concept idea.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/php/odoo-ecommerce-customization-integration</t>
+          <t>https://www.freelancer.com/projects/creative-design/playful-youthful-logo-design</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1260,12 +1260,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fix Website Font Display Issue</t>
+          <t>Equestrian Facility Construction Permits</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I need assistance with fixing a font display issue on my website. The font is not displaying correctly across the entire website only in Chrome. It works on Safari though. The site is built using WordPress, and I am seeking a solution to ensure the fonts render as intended.Key Requirements:- Resolve the issue of fonts not displaying correctly across the entire website.- Work with WordPress to implement the fix.Ideal Skills and Experience:- Experience in troubleshooting font display issues.- Familiarity with static website structures and styling.</t>
+          <t>I need help navigating construction permits for an equestrian facility. This includes:- Researching necessary permits- Preparing and submitting applications- Liaising with local authorities- Ensuring compliance with regulationsIdeal Skills &amp; Experience:- Knowledge of zoning and construction regulations- Experience with permit applications- Strong communication skills</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1275,17 +1275,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/web-design/fix-website-font-display-issue</t>
+          <t>https://www.freelancer.com/projects/construction/equestrian-facility-construction-permits</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1294,12 +1294,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[Venice, Italy] Hiring specimen collector for pre-employment drug testing (Training Provided) -- 2</t>
+          <t>Portrait Photo Merging and Editing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SummaryWe are part of a global network providing drug testing services, with a presence in multiple countries.Our client requires us to conduct drug testing in Piazzale Leonardo da Vinci 8/11 Scala C 30172 Venezia Mestre Italy. This testing is part of a pre-employment background check for new hires. As a certified company, we do not require you to have any prior licenses or experience. We will provide comprehensive training, necessary supplies, and tools.Key Responsibilities- Scheduled session at the candidate’s residence or a nearby meeting room (venue cost will be covered)- Collect samples from the client's residence or office, or arrange to rent a meeting room for the session.- Perform the testing following our guidelines.- Send the test results to us- Follow provide...</t>
+          <t>I'm looking for a talented photo editor to work on portrait photos by incorporating additional images into a single, cohesive picture. The primary task involves merging multiple photos into one seamless portrait while maintaining a natural and polished look.Key Requirements:- Expertise in merging photos into a single image- Ability to maintain the original quality and details of the portraits- Proficiency in photo editing software (e.g., Adobe Photoshop, Lightroom)- Attention to detail to ensure a natural and professional finishIdeal Skills and Experience:- Strong portfolio showcasing photo merging and editing skills- Experience with portrait editing and enhancement- Creative eye for composition and aesthetics- Good communication skills for understanding project requiremen...</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/communications/venice-italy-hiring-specimen-collector-39629345</t>
+          <t>https://www.freelancer.com/projects/adobe-photoshop/portrait-photo-merging-editing</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1328,12 +1328,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Expert on Property Lead Generation &amp; Facebook Ads Needed</t>
+          <t>.Net Developer Full-Stack (Portugal)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Property Lead Generation and Facebook Ads SpecialistWe're looking for a skilled freelancer to help us generate leads for our property business in Bangkok. The ideal candidate will have experience in creating and managing Facebook Ads campaigns, setting up lead forms, and optimizing ad performance.Create and manage Facebook Ads campaigns to generate leads for our rental propertiesSet up and optimize lead forms to capture user detailsMonitor and report on ad performance, including cost per lead and conversion rateOptimize ad targeting, ad creative, and budget allocation to improve lead quality and quantityExperience with Facebook Ads and lead generationStrong understanding of ad targeting, ad creative, and budget allocationAbility to monitor and optimize ad performanceExcellent...</t>
+          <t>You’ll gain a solid grasp of the project domain and requirements, enabling clear and collaborative communication as equal partners. This mutual understanding fosters the confidence to drive forward innovative solutions. Our customer-first approach ensures that what we build delivers genuine value.A genuine enthusiasm for software development – By applying technologies like C#, Angular, Python and Azure in a targeted and effective way, you’ll play a key role in delivering impactful solutions. We actively integrate GenAI into our development process and stay ahead by leveraging tools such as GitHub Copilot to enhance both developer productivity and creativity.Accelerate your growth – You'll be part of a skilled and experienced team of software engineers and a...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1343,17 +1343,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/facebook-ads/expert-property-lead-generation-facebook</t>
+          <t>https://www.freelancer.com/projects/c-sharp-programming/net-developer-full-stack</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1362,12 +1362,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Textile Fabric Print Design -- 2</t>
+          <t>AML/CTF Compliance Officer for Crypto MSB -- 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>I need a textile designer to create fabric print designs specifically for t-shirts. The focus is on developing unique and appealing designs that can be used for t-shirt prints. I am open to various styles, including geometric patterns, floral patterns, and abstract designs. However, I require assistance in developing a specific theme or concept for these designs.Key Requirements:- Create fabric print designs for t-shirts.- Explore various styles: geometric, floral, and abstract.- Assist in developing a theme or concept for the designs.Ideal Skills and Experience:- Experience in textile design, particularly in fabric print design.- Strong creativity and ability to generate unique design concepts.- Proficiency in creating designs suitable for t-shirt printing.</t>
+          <t>FINTRAC Compliance Officer MsB license1. Company Overview We are a newly incorporated Money Services Business (MSB registered or registering under FINTRAC in Canada. Our platform provides custodial cryptocurrency wallet services using Fireblocks, with crypto-to-fiat hedging via FinaryMarkets. End-user cards will be issued via third-party EMI providers in the EU or UK, linked to crypto balances.  2. Scope of Services Required We are seeking a qualified service provider to deliver outsourced AML/CTF Compliance Officer (CCO) services to fulfill our regulatory obligations under the Proceeds of Crime (Money Laundering) and Terrorist Financing Act (PCMLTFA) and FINTRAC guidelines.  3. Responsibilities of the AML Officer  * Act as the designated AML/CCO for our company. * Develop, maintain, and...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/fabric-printing-design/textile-fabric-print-design</t>
+          <t>https://www.freelancer.com/projects/anti-money-laundering/aml-ctf-compliance-officer-for</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1396,12 +1396,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Generate OpenCore EFI for AMD</t>
+          <t>Visual Design Concept for nexis-secure.com (Figma Deliverables Only)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Of course. Here is the updated version with your specific hardware and end-goal integrated into the post.Expert OpenCore Developer for Custom AMD Hackintosh BuildI'm looking for a highly experienced OpenCore developer to create a custom EFI for my desktop, built around a Ryzen 9 CPU and a 2TB NVMe SSD on a Gigabyte motherboard. The end result must be a perfectly stable system that reliably boots the latest macOS Sonoma directly from the NVMe drive for daily use.This is not a beginner project. Please apply only if you have deep, hands-on experience with the complexities of AMD-based systems.Key Responsibilities &amp; Technical Requirements:EFI from Scratch: You will build a new  using the latest stable OpenCore release. No downloaded or modified pre-built EFIs from ot...</t>
+          <t>!! Do not contact us outside of the freelancer platform !! 1. BackgroundNEXIS GmbH develops cutting-edge identity analytics and access-governance software. Our website, , is scheduled for a WordPress re-brush. Development resources are already lined up.We now need a dedicated UI/UX designer to craft the entire visual concept before implementation starts.2. Scope &amp; ObjectivesModern, trust-building lookTranslate our cybersecurity brand into a contemporary interface.Responsive mindsetDesign grids, spacing, and components that adapt gracefully from mobile to large desktop.Editor-friendly layout systemProvide clear patterns and modular sections the dev team can reproduce in Wordpress Elementor.3. Deliverables (Figma)a.     Design System / Style Guideb.Component Librar...</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/jobs//contest/generate-opencore-efi-for-amd-2570565</t>
+          <t>https://www.freelancer.com/projects/graphic-design/visual-design-concept-for-nexis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1430,12 +1430,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Excel Financial Data Analysis</t>
+          <t>Health and Wellness Article Writer</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>I need assistance with data analysis in Microsoft Excel, specifically using pivot tables and charts. The data is financial in nature, and I'm particularly interested in analyzing revenue and expenses.Key Requirements:- Create and manage pivot tables- Design insightful charts for data visualization- Analyze financial data with accuracy- Present data clearly and effectivelyIdeal Skills and Experience:- Proficiency in Microsoft Excel- Experience with financial data analysis- Strong analytical skills- Attention to detail- Ability to meet deadlines</t>
+          <t>I'm in need of a talented article writer to create an informational piece on health and wellness aimed at the general public. The article should be engaging, easy to understand, and provide valuable insights into the chosen topic.Key Requirements:- Write an informative article on health and wellness- Tailor content to be accessible and engaging for a general audience- Ensure accuracy and clarity in presenting information- Conduct thorough research to support the contentIdeal Skills and Experience:- Strong writing skills with a focus on clarity and engagement- Experience in writing health and wellness content- Ability to research and synthesize complex information- Understanding of the general public's interests and concerns in health topicsI look forward to working ...</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/data-analysis/excel-financial-data-analysis</t>
+          <t>https://www.freelancer.com/projects/health/health-wellness-article-writer-39633942</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1464,12 +1464,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Excel Financial Data Analysis -- 2</t>
+          <t>3D Rendering of Conference Room</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>I need assistance with data analysis in Microsoft Excel, specifically using pivot tables and charts. The data is financial in nature, and I'm particularly interested in analyzing revenue and expenses.Key Requirements:- Create and manage pivot tables- Design insightful charts for data visualization- Analyze financial data with accuracy- Present data clearly and effectivelyIdeal Skills and Experience:- Proficiency in Microsoft Excel- Experience with financial data analysis- Strong analytical skills- Attention to detail- Ability to meet deadlines</t>
+          <t>Design Brief: 3D Rendering of Conference RoomProject Title:3D Rendering for 21-Seater Corporate Conference RoomObjective:To develop a high-quality, photorealistic 3D render of a modern 21-seater corporate conference room for presentation, marketing, and client approval purposes.Scope of Work:Create a detailed, photorealistic 3D render based on the provided SketchUp model (basic layout and structure will be shared).Apply materials, lighting, and textures according to the design brief and material palette.Produce rendered views from multiple angles: a wide perspective, table-level eye view, and close-ups of key elements (such as ceiling, table detail, or lighting).Design Style &amp; Requirements:Theme: Contemporary, professional, and clean.Seating Capacity: 21 seats (to b...</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/data-analysis/excel-financial-data-analysis-39630170</t>
+          <t>https://www.freelancer.com/projects/google-sketchup/rendering-conference-room</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1498,12 +1498,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>تصميم شعار كلاسيكي</t>
+          <t>Loan DSA Social Media Ad</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>أحتاج مصمم جرافيك موهوب لإنشاء شعارات.  المتطلبات:  - تصميم شعارات بتصميم كلاسيكي  - مهارات قوية في أدوات التصميم مثل Adobe Illustrator وPhotoshop  - اهتمام كبير بالتفاصيل  - القدرة على العمل ضمن فريق أو بشكل مستقل  - محفظة تظهر خبرة في الأنماط الكلاسيكية  المتقدمون المثاليون يجب أن يكون لديهم:  - خبرة مثبتة في تصميم الشعارات  - إبداع ومهارات حل مشاكل  - مهارات تواصل ممتازة  يرجى تقديم عينات من الأعمال السابقة.</t>
+          <t>I need a compelling social media advertisement for my Loan DSA (Direct Selling Agent) services. The main goal of this advertisement is to generate leads.Key Requirements:- Eye-catching visuals and engaging copy- Targeted placement to reach potential loan customers- Integration with Google Ads and Website BannersIdeal Skills and Experience:- Proven track record in creating lead-generating ads- Expertise in social media platforms- Proficient in Google Ads and website banner integrationI'm looking for a professional who can deliver high-quality work within my budget. Please provide samples of previous work and a brief strategy on how you plan to achieve my goal.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1513,17 +1513,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Design &amp; Creative</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.freelancer.com/projects/graphic-design/project-39630165</t>
+          <t>https://www.freelancer.com/projects/content-marketing/loan-dsa-social-media</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-07-22 11:21:59</t>
+          <t>2025-07-23 14:12:16</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>$1000 Weekly Virtual Assistant</t>
+          <t>$30 Hourly Virtual Assistant USA RESIDENTS ONLY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1548,12 +1548,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-1000-weekly-virtual-assistant-holdon-now-1093611</t>
+          <t>https://remoteok.com/remote-jobs/remote-30-hourly-virtual-assistant-usa-residents-only-holdon-now-1093611</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Languages Instructors</t>
+          <t>WordPress Plugins &amp; Themes developer</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1578,12 +1578,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-languages-instructors-ae-virtual-class-1093209</t>
+          <t>https://remoteok.com/remote-jobs/remote-wordpress-plugins-themes-developer-melapress-1093690</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1592,7 +1592,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Paralegal</t>
+          <t>Languages Instructors</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1608,12 +1608,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-paralegal-ef-law-firm-1092985</t>
+          <t>https://remoteok.com/remote-jobs/remote-languages-instructors-ae-virtual-class-1093209</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intelligence &amp; Research Analyst</t>
+          <t>Paralegal</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1638,12 +1638,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-intelligence-amp-research-analyst-clipbook-1093688</t>
+          <t>https://remoteok.com/remote-jobs/remote-paralegal-ef-law-firm-1092985</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1652,7 +1652,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Government Relations Officer</t>
+          <t>Software Engineer II Full Stack</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1668,12 +1668,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-government-relations-officer-injective-labs-1093686</t>
+          <t>https://remoteok.com/remote-jobs/remote-software-engineer-ii-full-stack-greenlight-financial-technology-1093698</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Software Engineer II Full Stack</t>
+          <t>Associate Creative Director</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1693,17 +1693,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-software-engineer-ii-full-stack-greenlight-financial-technology-1093682</t>
+          <t>https://remoteok.com/remote-jobs/remote-associate-creative-director-right-side-up-1093697</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UI UX Product Designer</t>
+          <t>Revenue Operations Manager</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1723,17 +1723,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-ui-ux-product-designer-crewvision-1093681</t>
+          <t>https://remoteok.com/remote-jobs/remote-revenue-operations-manager-afar-1093696</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1742,7 +1742,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Membership Site Support Specialist</t>
+          <t>Fullstack Golang Engineer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1758,12 +1758,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-membership-site-support-specialist-jtine-co-1093621</t>
+          <t>https://remoteok.com/remote-jobs/remote-fullstack-golang-engineer-discern-1093694</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Admin and Support Specialist With Love for Writing</t>
+          <t>C C++ Linux developer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Writing &amp; Content</t>
+          <t>Design &amp; Creative</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-admin-and-support-specialist-with-love-for-writing-interaction-design-foundation-1093680</t>
+          <t>https://remoteok.com/remote-jobs/remote-c-c-linux-developer-tempesta-technologies-1093692</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Crypto Compliance Project Manager</t>
+          <t>Content led Marketer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1813,17 +1813,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Writing &amp; Content</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-crypto-compliance-project-manager-dlocal-1093679</t>
+          <t>https://remoteok.com/remote-jobs/remote-content-led-marketer-melapress-1093691</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Head of CRM</t>
+          <t>Marketing Lead</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1843,17 +1843,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-head-of-crm-oanda-europe-ltd-1093678</t>
+          <t>https://remoteok.com/remote-jobs/remote-marketing-lead-the-block-1093689</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Content Producer Technical Content Engineer Junior Dev</t>
+          <t>Intelligence &amp; Research Analyst</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1873,17 +1873,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Web Development Internship</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-content-producer-technical-content-engineer-junior-dev-private-ki-1093677</t>
+          <t>https://remoteok.com/remote-jobs/remote-intelligence-amp-research-analyst-clipbook-1093688</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1892,7 +1892,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Executive Assistant &amp; Office Manager</t>
+          <t>Government Relations Officer</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1903,17 +1903,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-executive-assistant-amp-office-manager-sword-health-1093673</t>
+          <t>https://remoteok.com/remote-jobs/remote-government-relations-officer-injective-labs-1093686</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1922,7 +1922,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Senior Product Designer</t>
+          <t>Software Engineer II Full Stack</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1933,17 +1933,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://remoteok.com/remote-jobs/remote-senior-product-designer-alltrails-1093671</t>
+          <t>https://remoteok.com/remote-jobs/remote-software-engineer-ii-full-stack-greenlight-financial-technology-1093682</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:02</t>
+          <t>2025-07-23 14:13:29</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1952,45 +1952,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cloud Engineer</t>
+          <t>UI UX Product Designer</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>G21</t>
+          <t>Remote OK</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/baed670e-4d57-4d2d-803d-7bb5843038ae</t>
+          <t>https://remoteok.com/remote-jobs/remote-ui-ux-product-designer-crewvision-1093681</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:25</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Full time</t>
-        </is>
-      </c>
+          <t>2025-07-23 14:13:29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FullStack (Ruby + React) Developer</t>
+          <t>Cloud Engineer</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2001,17 +1993,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/5a9ffc9d-1fbf-4f94-9c49-372ad689d93a</t>
+          <t>https://jobs.ashbyhq.com/g2i/baed670e-4d57-4d2d-803d-7bb5843038ae</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:25</t>
+          <t>2025-07-23 14:13:54</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2028,7 +2020,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fullstack Software Engineer - Tech Lead</t>
+          <t>FullStack (Ruby + React) Developer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2039,20 +2031,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/ffb48a7b-f62e-452d-b0f6-9bd4121f74a0</t>
+          <t>https://jobs.ashbyhq.com/g2i/5a9ffc9d-1fbf-4f94-9c49-372ad689d93a</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:25</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>2025-07-23 14:13:54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>Full time</t>
@@ -2062,7 +2058,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer - TypeScript</t>
+          <t>Fullstack Software Engineer - Tech Lead</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2078,19 +2074,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/cbabb1fa-99aa-4ccb-ad79-f46f5d98800d</t>
+          <t>https://jobs.ashbyhq.com/g2i/ffb48a7b-f62e-452d-b0f6-9bd4121f74a0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:25</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
+          <t>2025-07-23 14:13:54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>Full time</t>
@@ -2100,7 +2092,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Infrastructure Engineer</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2111,20 +2103,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/55ea0251-b1ab-46da-a847-368bec093ab3</t>
+          <t>https://jobs.ashbyhq.com/g2i/615ba46c-75ac-405a-ac45-1168e3f1a96d</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:25</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>2025-07-23 14:13:54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>Full time</t>
@@ -2134,7 +2130,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Software Developer .NET</t>
+          <t>Senior Backend Engineer - TypeScript</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2145,17 +2141,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://jobs.ashbyhq.com/g2i/697db620-6576-4e63-b0d9-3f459c089282</t>
+          <t>https://jobs.ashbyhq.com/g2i/cbabb1fa-99aa-4ccb-ad79-f46f5d98800d</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:25</t>
+          <t>2025-07-23 14:13:54</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2172,13 +2168,13 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Senior Django Developer</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Remotive</t>
+          <t>G21</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2188,51 +2184,63 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-django-developer-1359476</t>
+          <t>https://jobs.ashbyhq.com/g2i/55ea0251-b1ab-46da-a847-368bec093ab3</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:13:54</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Senior Next.js Developer</t>
+          <t>Software Developer .NET</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Remotive</t>
+          <t>G21</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-next-js-developer-1606658</t>
+          <t>https://jobs.ashbyhq.com/g2i/697db620-6576-4e63-b0d9-3f459c089282</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+          <t>2025-07-23 14:13:54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Frontend Engineer</t>
+          <t>Senior Django Developer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2243,17 +2251,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2036982</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-django-developer-1359476</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2262,7 +2270,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Back-End Web Developer</t>
+          <t>Senior Next.js Developer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2273,17 +2281,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/back-end-web-developer-2036955</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-next-js-developer-1606658</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2292,7 +2300,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Freelance Web Developer</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2303,17 +2311,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/freelance-web-developer-2036890</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-2037648</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2322,7 +2330,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AEM Vue.js Developer</t>
+          <t>Frontend Engineer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2333,17 +2341,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Beginner Web Development</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/aem-vue-js-developer-2036872</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2036982</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2352,7 +2360,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>eCommerce Tool Developer - Node.js/Next.js</t>
+          <t>Back-End Web Developer</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2363,17 +2371,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Beginner Web Development</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/ecommerce-tool-developer-node-js-next-js-2036414</t>
+          <t>https://remotive.com/remote-jobs/software-dev/back-end-web-developer-2036955</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2382,7 +2390,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Freelance Web Developer</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2393,17 +2401,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/python-developer-2035478</t>
+          <t>https://remotive.com/remote-jobs/software-dev/freelance-web-developer-2036890</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2412,7 +2420,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Senior Front End Engineer</t>
+          <t>AEM Vue.js Developer</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2423,17 +2431,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-engineer-2035492</t>
+          <t>https://remotive.com/remote-jobs/software-dev/aem-vue-js-developer-2036872</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2442,7 +2450,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Full Stack Software Engineer</t>
+          <t>eCommerce Tool Developer - Node.js/Next.js</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2453,17 +2461,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Beginner Web Development</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/full-stack-software-engineer-2035493</t>
+          <t>https://remotive.com/remote-jobs/software-dev/ecommerce-tool-developer-node-js-next-js-2036414</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2472,7 +2480,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WP Web Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2483,17 +2491,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/wp-web-developer-2035498</t>
+          <t>https://remotive.com/remote-jobs/software-dev/python-developer-2035478</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2502,7 +2510,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frontend Engineer</t>
+          <t>Senior Front End Engineer</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2513,17 +2521,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2035501</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-engineer-2035492</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2532,7 +2540,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Senior .NET Web Developer</t>
+          <t>Full Stack Software Engineer</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2543,17 +2551,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-net-web-developer-2035503</t>
+          <t>https://remotive.com/remote-jobs/software-dev/full-stack-software-engineer-2035493</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2562,7 +2570,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Frontend Software Engineer</t>
+          <t>WP Web Developer</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2578,12 +2586,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/frontend-software-engineer-2035601</t>
+          <t>https://remotive.com/remote-jobs/software-dev/wp-web-developer-2035498</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2592,7 +2600,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PHP Web Developer</t>
+          <t>Frontend Engineer</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2608,12 +2616,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/php-web-developer-2035554</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-engineer-2035501</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2622,7 +2630,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>(Senior) Web Developer Frontend/Backend</t>
+          <t>Senior .NET Web Developer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2638,12 +2646,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-web-developer-frontend-backend-2035569</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-net-web-developer-2035503</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2652,7 +2660,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>React Developer</t>
+          <t>Frontend Software Engineer</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2668,12 +2676,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/react-developer-2035580</t>
+          <t>https://remotive.com/remote-jobs/software-dev/frontend-software-engineer-2035601</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2682,7 +2690,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Senior Front End Developer</t>
+          <t>PHP Web Developer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2693,17 +2701,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-developer-2035595</t>
+          <t>https://remotive.com/remote-jobs/software-dev/php-web-developer-2035554</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2712,7 +2720,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>(Senior) Web Developer Frontend/Backend</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2723,17 +2731,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2035378</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-web-developer-frontend-backend-2035569</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2742,7 +2750,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>React Developer</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2753,17 +2761,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2034824</t>
+          <t>https://remotive.com/remote-jobs/software-dev/react-developer-2035580</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2772,7 +2780,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Senior Front End Developer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2783,17 +2791,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/full-stack-developer-2035363</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-front-end-developer-2035595</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2802,7 +2810,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Team Lead / Software Developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2813,17 +2821,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/team-lead-software-developer-2035242</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2035378</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2832,7 +2840,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Software Engineer II, Mobile</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2843,17 +2851,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mobile Development</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-ii-mobile-2035253</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-developer-2034824</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2862,7 +2870,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2873,17 +2881,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data &amp; Analytics</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-2035254</t>
+          <t>https://remotive.com/remote-jobs/software-dev/full-stack-developer-2035363</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2892,7 +2900,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Team Lead / Software Developer</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2903,17 +2911,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-2035270</t>
+          <t>https://remotive.com/remote-jobs/software-dev/team-lead-software-developer-2035242</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2922,7 +2930,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Senior Independent Software Developer</t>
+          <t>Software Engineer II, Mobile</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2933,17 +2941,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Mobile Development</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-independent-software-developer-1919265</t>
+          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-ii-mobile-2035253</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2952,7 +2960,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Senior Django Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2968,12 +2976,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-django-developer-1359476</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-2035254</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2982,7 +2990,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Senior Fullstack Developer</t>
+          <t>Senior Independent Software Developer</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2998,12 +3006,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-fullstack-developer-1591692</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-independent-software-developer-1919265</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3012,7 +3020,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Senior Software Engineer C++</t>
+          <t>Senior Django Developer</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3028,12 +3036,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-c-1996157</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-django-developer-1359476</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3042,7 +3050,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Software Engineer - Customer Projects - Americas</t>
+          <t>Senior Fullstack Developer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3053,17 +3061,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Data &amp; Analytics</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-customer-projects-americas-2032608</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-fullstack-developer-1591692</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -3072,7 +3080,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Senior Software Engineer C++</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3088,16 +3096,76 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://remotive.com/remote-jobs/software-dev/senior-data-scientist-2017883</t>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-software-engineer-c-1996157</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-07-22 11:23:45</t>
+          <t>2025-07-23 14:14:24</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Software Engineer - Customer Projects - Americas</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Data &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-dev/software-engineer-customer-projects-americas-2032608</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-07-23 14:14:24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Remotive</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://remotive.com/remote-jobs/software-dev/senior-data-scientist-2017883</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-07-23 14:14:24</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
